--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19830" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19830" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="title" sheetId="1" r:id="rId1"/>
-    <sheet name="signin" sheetId="2" r:id="rId2"/>
+    <sheet name="signindata" sheetId="2" r:id="rId2"/>
     <sheet name="quest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>版本号</t>
   </si>
@@ -31,6 +31,15 @@
     <t>称号条件</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>金鸡生蛋</t>
   </si>
   <si>
@@ -106,13 +115,22 @@
     <t>签到获得</t>
   </si>
   <si>
-    <t>name</t>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>首日</t>
+  </si>
+  <si>
+    <t>次日</t>
   </si>
   <si>
     <t>任务名</t>
@@ -178,9 +196,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
@@ -237,12 +255,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -588,20 +609,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -615,20 +639,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -641,45 +676,51 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -689,8 +730,11 @@
       <c r="C4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -700,19 +744,25 @@
       <c r="C5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -721,6 +771,9 @@
       </c>
       <c r="C7">
         <v>500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -751,20 +804,20 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19830" windowHeight="8370"/>
+    <workbookView windowWidth="19800" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="title" sheetId="1" r:id="rId1"/>
+    <sheet name="titledata" sheetId="1" r:id="rId1"/>
     <sheet name="signindata" sheetId="2" r:id="rId2"/>
-    <sheet name="quest" sheetId="3" r:id="rId3"/>
+    <sheet name="questdata" sheetId="3" r:id="rId3"/>
+    <sheet name="insuredata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>版本号</t>
   </si>
@@ -28,7 +29,10 @@
     <t>称号描述</t>
   </si>
   <si>
-    <t>称号条件</t>
+    <t>经验值</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
   <si>
     <t>name</t>
@@ -37,10 +41,13 @@
     <t>desc</t>
   </si>
   <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>金鸡生蛋</t>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>初始小土豆</t>
   </si>
   <si>
     <r>
@@ -85,27 +92,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>首富</t>
-    </r>
+    <t>小土豆</t>
   </si>
   <si>
     <t>曾获得过财富榜第一名</t>
   </si>
   <si>
+    <t>中土豆</t>
+  </si>
+  <si>
     <t>签到天数</t>
   </si>
   <si>
@@ -136,7 +131,34 @@
     <t>任务名</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>任务条件</t>
+  </si>
+  <si>
+    <t>所需</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>prize</t>
+  </si>
+  <si>
+    <t>买个股票</t>
   </si>
   <si>
     <r>
@@ -155,6 +177,18 @@
       </rPr>
       <t>股票</t>
     </r>
+  </si>
+  <si>
+    <t>[{t:1,v:100}]</t>
+  </si>
+  <si>
+    <t>[{t:1,v:1}]</t>
+  </si>
+  <si>
+    <t>[{t:1,v:100},{t:2,v:300}]</t>
+  </si>
+  <si>
+    <t>买个保险</t>
   </si>
   <si>
     <r>
@@ -190,15 +224,45 @@
       <t>理财产品</t>
     </r>
   </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>周期</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>白银</t>
+  </si>
+  <si>
+    <t>意外险</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
@@ -255,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,9 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -609,13 +670,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
   </cols>
@@ -628,7 +689,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -638,32 +699,64 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -678,8 +771,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -689,35 +782,35 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -731,7 +824,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -745,7 +838,7 @@
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -759,7 +852,7 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -773,7 +866,7 @@
         <v>500</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -786,38 +879,227 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:7">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" spans="1:7">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>9.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>9000</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="19800" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="titledata" sheetId="1" r:id="rId1"/>
     <sheet name="signindata" sheetId="2" r:id="rId2"/>
     <sheet name="questdata" sheetId="3" r:id="rId3"/>
     <sheet name="insuredata" sheetId="4" r:id="rId4"/>
+    <sheet name="eventdata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>版本号</t>
   </si>
@@ -254,20 +255,86 @@
   <si>
     <t>意外险</t>
   </si>
+  <si>
+    <t>事件描述</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>彩票中一等奖</t>
+  </si>
+  <si>
+    <t>[{t:1,v:200},{t:0,v:300}]</t>
+  </si>
+  <si>
+    <t>获得年终绩效奖金</t>
+  </si>
+  <si>
+    <t>[{t:1,v:200},{t:0,v:5100}]</t>
+  </si>
+  <si>
+    <t>吃海鲜吃出珍珠</t>
+  </si>
+  <si>
+    <t>[{t:1,v:450},{t:0,v:300}]</t>
+  </si>
+  <si>
+    <t>变卖家传文物</t>
+  </si>
+  <si>
+    <t>[{t:1,v:20},{t:0,v:800}]</t>
+  </si>
+  <si>
+    <t>出门遭遇高空坠物</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-2000},{t:0,v:-8000}]</t>
+  </si>
+  <si>
+    <t>家里被盗，丢失笔记本电脑一台</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-1222},{t:0,v:-900}]</t>
+  </si>
+  <si>
+    <t>店铺发生火灾</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-22},{t:0,v:-90}]</t>
+  </si>
+  <si>
+    <t>出国旅游相机被偷</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-800},{t:0,v:-390}]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -319,15 +386,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -718,10 +791,10 @@
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -732,10 +805,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -771,8 +844,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -800,13 +873,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
@@ -949,7 +1022,7 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C4">
@@ -972,7 +1045,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C5">
@@ -1107,4 +1180,144 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="65.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="7950" activeTab="4"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="titledata" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="questdata" sheetId="3" r:id="rId3"/>
     <sheet name="insuredata" sheetId="4" r:id="rId4"/>
     <sheet name="eventdata" sheetId="5" r:id="rId5"/>
+    <sheet name="stockdata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>版本号</t>
   </si>
@@ -308,6 +309,91 @@
   </si>
   <si>
     <t>[{t:1,v:-800},{t:0,v:-390}]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>平安股票</t>
+  </si>
+  <si>
+    <t>中石油</t>
+  </si>
+  <si>
+    <t>石油蓝筹股</t>
+  </si>
+  <si>
+    <r>
+      <t>万科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>最大房地产股</t>
+  </si>
+  <si>
+    <r>
+      <t>中兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通讯</t>
+    </r>
+  </si>
+  <si>
+    <t>民企中兴</t>
+  </si>
+  <si>
+    <r>
+      <t>长江</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电力</t>
+    </r>
+  </si>
+  <si>
+    <t>央企</t>
+  </si>
+  <si>
+    <r>
+      <t>苏宁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电器</t>
+    </r>
+  </si>
+  <si>
+    <t>电器大佬</t>
   </si>
 </sst>
 </file>
@@ -327,6 +413,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="16"/>
       <name val="宋体"/>
@@ -335,11 +426,6 @@
     <font>
       <sz val="11"/>
       <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -386,20 +472,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,10 +883,10 @@
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -805,10 +897,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -873,13 +965,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
@@ -1022,7 +1114,7 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4">
@@ -1045,7 +1137,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C5">
@@ -1187,8 +1279,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1217,13 +1309,13 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1294,7 +1386,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B10">
@@ -1305,7 +1397,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B11">
@@ -1313,6 +1405,171 @@
       </c>
       <c r="C11" t="s">
         <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>18.7</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>9.2</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" activeTab="5"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="titledata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>版本号</t>
   </si>
@@ -227,6 +227,9 @@
     </r>
   </si>
   <si>
+    <t>主键</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
     <t>周期</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -251,6 +257,83 @@
     <t>黄金</t>
   </si>
   <si>
+    <r>
+      <t>投保后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，在保险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规避</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的风险，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规避</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经济上的损失</t>
+    </r>
+  </si>
+  <si>
     <t>白银</t>
   </si>
   <si>
@@ -311,9 +394,6 @@
     <t>[{t:1,v:-800},{t:0,v:-390}]</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>单位</t>
   </si>
   <si>
@@ -333,6 +413,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>万科</t>
     </r>
     <r>
@@ -349,6 +434,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中兴</t>
     </r>
     <r>
@@ -365,6 +455,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>长江</t>
     </r>
     <r>
@@ -381,6 +476,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>苏宁</t>
     </r>
     <r>
@@ -472,12 +572,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -883,10 +980,10 @@
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -897,10 +994,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -937,7 +1034,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -965,13 +1062,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
@@ -986,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1000,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -1011,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -1028,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1114,7 +1211,7 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4">
@@ -1137,7 +1234,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C5">
@@ -1166,31 +1263,36 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="38.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -1198,73 +1300,103 @@
       <c r="E2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4">
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:7">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
       <c r="C4">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>123</v>
       </c>
       <c r="E4">
-        <v>9.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" spans="1:7">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
       <c r="C5">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" spans="1:7">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>1000</v>
       </c>
-      <c r="E5">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>9000</v>
       </c>
-      <c r="E6">
-        <v>10</v>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1299,112 +1431,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>64</v>
+      <c r="A10" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>66</v>
+      <c r="A11" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1419,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1438,24 +1570,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1464,10 +1596,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1475,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1492,10 +1624,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1505,14 +1637,14 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>75</v>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>18.7</v>
@@ -1526,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1543,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>9.2</v>
@@ -1560,10 +1692,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>30</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" activeTab="3"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="titledata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>版本号</t>
   </si>
@@ -258,6 +258,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>投保后</t>
     </r>
     <r>
@@ -394,10 +399,19 @@
     <t>[{t:1,v:-800},{t:0,v:-390}]</t>
   </si>
   <si>
+    <t>跳动频率(秒)</t>
+  </si>
+  <si>
     <t>单位</t>
   </si>
   <si>
+    <t>涨跌幅</t>
+  </si>
+  <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>per</t>
   </si>
   <si>
     <t>中国平安</t>
@@ -572,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,9 +600,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,7 +1276,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1349,7 +1360,7 @@
       <c r="F4">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1372,7 +1383,7 @@
       <c r="F5">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1395,7 +1406,7 @@
       <c r="F6">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1549,26 +1560,32 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="2" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>1.1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1582,10 +1599,13 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1599,18 +1619,21 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1618,16 +1641,19 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1635,16 +1661,19 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>18.7</v>
@@ -1652,16 +1681,19 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1669,16 +1701,19 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>9.2</v>
@@ -1686,22 +1721,28 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9">
         <v>100</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" activeTab="5"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="titledata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>版本号</t>
   </si>
@@ -345,22 +345,37 @@
     <t>意外险</t>
   </si>
   <si>
+    <t>触发周期(分钟)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
     <t>事件描述</t>
   </si>
   <si>
     <t>属性</t>
   </si>
   <si>
+    <t>彩票中奖</t>
+  </si>
+  <si>
     <t>彩票中一等奖</t>
   </si>
   <si>
     <t>[{t:1,v:200},{t:0,v:300}]</t>
   </si>
   <si>
+    <t>意外保险</t>
+  </si>
+  <si>
     <t>获得年终绩效奖金</t>
   </si>
   <si>
     <t>[{t:1,v:200},{t:0,v:5100}]</t>
+  </si>
+  <si>
+    <t>旅游保险</t>
   </si>
   <si>
     <t>吃海鲜吃出珍珠</t>
@@ -517,10 +532,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -528,6 +543,11 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -586,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +620,9 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,134 +1443,172 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="65.25" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>0.9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10">
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11">
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>70</v>
+      <c r="D11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1623,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1579,7 +1640,7 @@
         <v>1.1</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -1599,10 +1660,10 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1619,10 +1680,10 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1630,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1650,10 +1711,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1670,10 +1731,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>18.7</v>
@@ -1690,10 +1751,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1710,10 +1771,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>9.2</v>
@@ -1730,10 +1791,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>30</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" activeTab="4"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="titledata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>版本号</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>[{t:1,v:-800},{t:0,v:-390}]</t>
+  </si>
+  <si>
+    <t>出国旅游相机被偷333</t>
+  </si>
+  <si>
+    <t>出国旅游相机被偷ttt</t>
   </si>
   <si>
     <t>跳动频率(秒)</t>
@@ -530,10 +536,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1443,9 +1449,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1462,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
@@ -1583,7 +1589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
@@ -1608,6 +1614,20 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1623,8 +1643,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1637,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -1660,10 +1680,10 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1680,10 +1700,10 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1691,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1711,10 +1731,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1731,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>18.7</v>
@@ -1751,10 +1771,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1771,10 +1791,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>9.2</v>
@@ -1791,10 +1811,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>30</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="5"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="titledata" sheetId="1" r:id="rId1"/>
-    <sheet name="signindata" sheetId="2" r:id="rId2"/>
-    <sheet name="questdata" sheetId="3" r:id="rId3"/>
-    <sheet name="insuredata" sheetId="4" r:id="rId4"/>
-    <sheet name="eventdata" sheetId="5" r:id="rId5"/>
-    <sheet name="stockdata" sheetId="6" r:id="rId6"/>
+    <sheet name="initdata" sheetId="1" r:id="rId1"/>
+    <sheet name="savingdata" sheetId="2" r:id="rId2"/>
+    <sheet name="titledata" sheetId="3" r:id="rId3"/>
+    <sheet name="signindata" sheetId="4" r:id="rId4"/>
+    <sheet name="questdata" sheetId="5" r:id="rId5"/>
+    <sheet name="insuredata" sheetId="6" r:id="rId6"/>
+    <sheet name="eventdata" sheetId="7" r:id="rId7"/>
+    <sheet name="stockdata" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst/>
@@ -20,11 +22,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>版本号</t>
   </si>
   <si>
+    <t>金钱获得</t>
+  </si>
+  <si>
+    <t>经验获得</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>存款类型</t>
+  </si>
+  <si>
+    <t>存款利率</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>活期</t>
+  </si>
+  <si>
+    <t>一年期</t>
+  </si>
+  <si>
+    <t>两年期</t>
+  </si>
+  <si>
+    <t>三年期</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
     <t>称号名字</t>
   </si>
   <si>
@@ -37,19 +84,16 @@
     <t>等级</t>
   </si>
   <si>
-    <t>name</t>
+    <t>id</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>exp</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
-    <t>初始小土豆</t>
+    <t>初来乍到</t>
   </si>
   <si>
     <r>
@@ -94,15 +138,24 @@
     </r>
   </si>
   <si>
-    <t>小土豆</t>
+    <t>登堂入室</t>
   </si>
   <si>
     <t>曾获得过财富榜第一名</t>
   </si>
   <si>
+    <t>略有小成</t>
+  </si>
+  <si>
     <t>中土豆</t>
   </si>
   <si>
+    <t>渐入佳境</t>
+  </si>
+  <si>
+    <t>炉火纯青</t>
+  </si>
+  <si>
     <t>签到天数</t>
   </si>
   <si>
@@ -118,9 +171,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -227,12 +277,6 @@
     </r>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
     <t>价格</t>
   </si>
   <si>
@@ -240,9 +284,6 @@
   </si>
   <si>
     <t>周期</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>price</t>
@@ -536,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -972,93 +1013,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1069,6 +1061,240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>8000</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>12000</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D7"/>
@@ -1089,30 +1315,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1126,7 +1352,7 @@
         <v>3000</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1140,7 +1366,7 @@
         <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1154,7 +1380,7 @@
         <v>4000</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1168,7 +1394,7 @@
         <v>3500</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G5"/>
@@ -1203,94 +1429,94 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:7">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="1:7">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1300,13 +1526,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1326,48 +1552,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:7">
@@ -1375,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1390,7 +1616,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:7">
@@ -1398,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1413,7 +1639,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:7">
@@ -1421,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1436,7 +1662,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
@@ -1471,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D1">
         <v>30</v>
@@ -1479,156 +1705,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1638,12 +1864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1660,7 +1886,7 @@
         <v>1.2</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -1668,42 +1894,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1711,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1731,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1751,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>18.7</v>
@@ -1771,10 +1997,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1791,10 +2017,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>9.2</v>
@@ -1811,10 +2037,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D9">
         <v>30</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -48,6 +48,9 @@
     <t>存款利率</t>
   </si>
   <si>
+    <t>周期</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>rate</t>
   </si>
   <si>
+    <t>period</t>
+  </si>
+  <si>
     <t>活期</t>
   </si>
   <si>
@@ -283,16 +289,10 @@
     <t>利润</t>
   </si>
   <si>
-    <t>周期</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>profit</t>
-  </si>
-  <si>
-    <t>period</t>
   </si>
   <si>
     <t>黄金</t>
@@ -577,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1063,13 +1063,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1079,7 +1079,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1089,21 +1089,27 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1111,10 +1117,13 @@
       <c r="C4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1122,10 +1131,13 @@
       <c r="C5">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1133,16 +1145,22 @@
       <c r="C6">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
         <v>5.87</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1176,36 +1194,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1213,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1230,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -1247,10 +1265,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>4000</v>
@@ -1264,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>8000</v>
@@ -1278,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>12000</v>
@@ -1315,30 +1333,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1352,7 +1370,7 @@
         <v>3000</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1366,7 +1384,7 @@
         <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1380,7 +1398,7 @@
         <v>4000</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1394,7 +1412,7 @@
         <v>3500</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1429,94 +1447,94 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:7">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="1:7">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1552,48 +1570,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:7">
@@ -1711,7 +1729,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -1719,16 +1737,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1894,16 +1912,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>92</v>
@@ -1914,16 +1932,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>94</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="1"/>
+    <workbookView windowWidth="20370" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="eventdata" sheetId="7" r:id="rId7"/>
     <sheet name="stockdata" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst/>
 </workbook>
 </file>
@@ -27,18 +27,27 @@
     <t>版本号</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>金钱获得</t>
   </si>
   <si>
     <t>经验获得</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
     <t>exp</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -87,16 +96,7 @@
     <t>经验值</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>desc</t>
-  </si>
-  <si>
-    <t>level</t>
   </si>
   <si>
     <t>初来乍到</t>
@@ -577,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1013,43 +1013,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2000</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2000</v>
       </c>
     </row>
@@ -1063,103 +1072,121 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2.2</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3.23</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.87</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
@@ -1194,36 +1221,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1350,13 +1377,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1470,13 +1497,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -1570,10 +1597,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -1585,7 +1612,7 @@
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -1593,13 +1620,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -1608,10 +1635,10 @@
         <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:7">
@@ -1737,13 +1764,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>50</v>
@@ -1912,10 +1939,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -1932,13 +1959,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1914,8 +1914,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C1" t="s">
         <v>91</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>版本号</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>descs</t>
   </si>
   <si>
     <t>首日</t>
@@ -1345,7 +1348,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1355,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1383,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1397,7 +1400,7 @@
         <v>3000</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1411,7 +1414,7 @@
         <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1425,7 +1428,7 @@
         <v>4000</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1439,7 +1442,7 @@
         <v>3500</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1469,30 +1472,30 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1500,68 +1503,68 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:7">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1580,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1592,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1603,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1629,16 +1632,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:7">
@@ -1646,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1661,7 +1664,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:7">
@@ -1669,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1684,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:7">
@@ -1692,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1707,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1739,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1">
         <v>30</v>
@@ -1750,16 +1753,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1767,139 +1770,139 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1918,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1928,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -1948,13 +1951,13 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1965,16 +1968,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1982,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -2002,10 +2005,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -2022,10 +2025,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>18.7</v>
@@ -2042,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -2062,10 +2065,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>9.2</v>
@@ -2082,10 +2085,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>30</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>版本号</t>
   </si>
@@ -219,7 +219,46 @@
     <t>prize</t>
   </si>
   <si>
-    <t>买个股票</t>
+    <t>股票购买</t>
+  </si>
+  <si>
+    <t>去购买任何一支股票，完成任务有现金奖励</t>
+  </si>
+  <si>
+    <t>[{t:1,v:100}]</t>
+  </si>
+  <si>
+    <t>[{t:1,v:1}]</t>
+  </si>
+  <si>
+    <t>[{t:1,v:100},{t:2,v:300}]</t>
+  </si>
+  <si>
+    <t>参保</t>
+  </si>
+  <si>
+    <t>参保一家公司保险</t>
+  </si>
+  <si>
+    <t>投资理财任务</t>
+  </si>
+  <si>
+    <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>平安车险</t>
   </si>
   <si>
     <r>
@@ -228,7 +267,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>新购买一支</t>
+      <t>投保后</t>
     </r>
     <r>
       <rPr>
@@ -236,29 +275,15 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>股票</t>
-    </r>
-  </si>
-  <si>
-    <t>[{t:1,v:100}]</t>
-  </si>
-  <si>
-    <t>[{t:1,v:1}]</t>
-  </si>
-  <si>
-    <t>[{t:1,v:100},{t:2,v:300}]</t>
-  </si>
-  <si>
-    <t>买个保险</t>
-  </si>
-  <si>
+      <t>，在保险</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>新购买</t>
+      <t>期间</t>
     </r>
     <r>
       <rPr>
@@ -266,7 +291,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>一款</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -274,7 +299,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>保险</t>
+      <t>可以</t>
     </r>
     <r>
       <rPr>
@@ -282,32 +307,15 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>理财产品</t>
-    </r>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
+      <t>规避</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>投保后</t>
+      <t>对应</t>
     </r>
     <r>
       <rPr>
@@ -315,7 +323,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>，在保险</t>
+      <t>的风险，</t>
     </r>
     <r>
       <rPr>
@@ -323,7 +331,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>期间</t>
+      <t>规避</t>
     </r>
     <r>
       <rPr>
@@ -331,7 +339,23 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>，</t>
+      <t>经济上的损失</t>
+    </r>
+  </si>
+  <si>
+    <t>乐享理财</t>
+  </si>
+  <si>
+    <r>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，将在</t>
     </r>
     <r>
       <rPr>
@@ -339,7 +363,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>可以</t>
+      <t>一定时间</t>
     </r>
     <r>
       <rPr>
@@ -347,7 +371,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>规避</t>
+      <t>后获得固定收益，</t>
     </r>
     <r>
       <rPr>
@@ -355,7 +379,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>对应</t>
+      <t>保本</t>
     </r>
     <r>
       <rPr>
@@ -363,15 +387,158 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>的风险，</t>
-    </r>
+      <t>无风险</t>
+    </r>
+  </si>
+  <si>
+    <t>意外险</t>
+  </si>
+  <si>
+    <t>投保后，在保险期间，可以规避对应的风险，规避经济上的损失</t>
+  </si>
+  <si>
+    <t>少儿分红保险</t>
+  </si>
+  <si>
+    <t>教育金、满期生存保险金、身故保险金、可附加豁免保险费意外伤害保险、可附加意外伤害医疗保险</t>
+  </si>
+  <si>
+    <t>美满人生</t>
+  </si>
+  <si>
+    <t>确保美满你的一生</t>
+  </si>
+  <si>
+    <t>养老基金</t>
+  </si>
+  <si>
+    <t>养老也能赚钱</t>
+  </si>
+  <si>
+    <t>万能险</t>
+  </si>
+  <si>
+    <t>什么都可以保</t>
+  </si>
+  <si>
+    <t>医疗保险</t>
+  </si>
+  <si>
+    <t>除重大疾病外的普通病保险</t>
+  </si>
+  <si>
+    <t>重大疾病保险</t>
+  </si>
+  <si>
+    <t>重大疾病参保</t>
+  </si>
+  <si>
+    <t>触发周期(分钟)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>事件描述</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>彩票中奖</t>
+  </si>
+  <si>
+    <t>彩票中一等奖</t>
+  </si>
+  <si>
+    <t>[{t:1,v:200},{t:0,v:300}]</t>
+  </si>
+  <si>
+    <t>意外保险</t>
+  </si>
+  <si>
+    <t>获得年终绩效奖金</t>
+  </si>
+  <si>
+    <t>[{t:1,v:200},{t:0,v:5100}]</t>
+  </si>
+  <si>
+    <t>旅游保险</t>
+  </si>
+  <si>
+    <t>吃海鲜吃出珍珠</t>
+  </si>
+  <si>
+    <t>[{t:1,v:450},{t:0,v:300}]</t>
+  </si>
+  <si>
+    <t>变卖家传文物</t>
+  </si>
+  <si>
+    <t>[{t:1,v:20},{t:0,v:800}]</t>
+  </si>
+  <si>
+    <t>出门遭遇高空坠物</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-2000},{t:0,v:-8000}]</t>
+  </si>
+  <si>
+    <t>家里被盗，丢失笔记本电脑一台</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-1222},{t:0,v:-900}]</t>
+  </si>
+  <si>
+    <t>店铺发生火灾</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-22},{t:0,v:-90}]</t>
+  </si>
+  <si>
+    <t>出国旅游相机被偷</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-800},{t:0,v:-390}]</t>
+  </si>
+  <si>
+    <t>出国旅游相机被偷ttt</t>
+  </si>
+  <si>
+    <t>跳动频率(秒)</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>涨跌幅</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>平安股票是国内保险行业的蓝筹股</t>
+  </si>
+  <si>
+    <t>中石油</t>
+  </si>
+  <si>
+    <t>国内最大的石油股票</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>规避</t>
+      <t>万科</t>
     </r>
     <r>
       <rPr>
@@ -379,116 +546,11 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>经济上的损失</t>
-    </r>
-  </si>
-  <si>
-    <t>白银</t>
-  </si>
-  <si>
-    <t>意外险</t>
-  </si>
-  <si>
-    <t>触发周期(分钟)</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>事件描述</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>彩票中奖</t>
-  </si>
-  <si>
-    <t>彩票中一等奖</t>
-  </si>
-  <si>
-    <t>[{t:1,v:200},{t:0,v:300}]</t>
-  </si>
-  <si>
-    <t>意外保险</t>
-  </si>
-  <si>
-    <t>获得年终绩效奖金</t>
-  </si>
-  <si>
-    <t>[{t:1,v:200},{t:0,v:5100}]</t>
-  </si>
-  <si>
-    <t>旅游保险</t>
-  </si>
-  <si>
-    <t>吃海鲜吃出珍珠</t>
-  </si>
-  <si>
-    <t>[{t:1,v:450},{t:0,v:300}]</t>
-  </si>
-  <si>
-    <t>变卖家传文物</t>
-  </si>
-  <si>
-    <t>[{t:1,v:20},{t:0,v:800}]</t>
-  </si>
-  <si>
-    <t>出门遭遇高空坠物</t>
-  </si>
-  <si>
-    <t>[{t:1,v:-2000},{t:0,v:-8000}]</t>
-  </si>
-  <si>
-    <t>家里被盗，丢失笔记本电脑一台</t>
-  </si>
-  <si>
-    <t>[{t:1,v:-1222},{t:0,v:-900}]</t>
-  </si>
-  <si>
-    <t>店铺发生火灾</t>
-  </si>
-  <si>
-    <t>[{t:1,v:-22},{t:0,v:-90}]</t>
-  </si>
-  <si>
-    <t>出国旅游相机被偷</t>
-  </si>
-  <si>
-    <t>[{t:1,v:-800},{t:0,v:-390}]</t>
-  </si>
-  <si>
-    <t>出国旅游相机被偷333</t>
-  </si>
-  <si>
-    <t>出国旅游相机被偷ttt</t>
-  </si>
-  <si>
-    <t>跳动频率(秒)</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>涨跌幅</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>平安股票</t>
-  </si>
-  <si>
-    <t>中石油</t>
-  </si>
-  <si>
-    <t>石油蓝筹股</t>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>最大房地产股</t>
   </si>
   <si>
     <r>
@@ -497,7 +559,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>万科</t>
+      <t>中兴</t>
     </r>
     <r>
       <rPr>
@@ -505,11 +567,11 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>A</t>
-    </r>
-  </si>
-  <si>
-    <t>最大房地产股</t>
+      <t>通讯</t>
+    </r>
+  </si>
+  <si>
+    <t>驻足深圳，面向全球的通讯设备商</t>
   </si>
   <si>
     <r>
@@ -518,7 +580,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>中兴</t>
+      <t>长江</t>
     </r>
     <r>
       <rPr>
@@ -526,11 +588,11 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>通讯</t>
-    </r>
-  </si>
-  <si>
-    <t>民企中兴</t>
+      <t>电力</t>
+    </r>
+  </si>
+  <si>
+    <t>央企</t>
   </si>
   <si>
     <r>
@@ -539,7 +601,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>长江</t>
+      <t>苏宁</t>
     </r>
     <r>
       <rPr>
@@ -547,32 +609,29 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>电力</t>
-    </r>
-  </si>
-  <si>
-    <t>央企</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>苏宁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>电器</t>
     </r>
   </si>
   <si>
-    <t>电器大佬</t>
+    <t>发力电子商务</t>
+  </si>
+  <si>
+    <t>中国证券</t>
+  </si>
+  <si>
+    <t>证券行业排头</t>
+  </si>
+  <si>
+    <t>龙江交通</t>
+  </si>
+  <si>
+    <t>交通部直属行业公司</t>
+  </si>
+  <si>
+    <t>古井贡酒</t>
+  </si>
+  <si>
+    <t>酒类行业股票</t>
   </si>
 </sst>
 </file>
@@ -580,12 +639,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -602,14 +661,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="54"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -656,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,11 +721,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1078,7 +1133,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1455,13 +1510,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
@@ -1472,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1521,7 +1576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:7">
+    <row r="4" ht="63.75" spans="1:7">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1544,7 +1599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" ht="38.25" spans="1:7">
+    <row r="5" ht="25.5" spans="1:7">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1564,6 +1619,29 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1577,13 +1655,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
@@ -1595,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1609,10 +1687,10 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1632,10 +1710,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1649,22 +1727,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>2000</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:7">
@@ -1672,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1686,31 +1764,169 @@
       <c r="F5">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>64</v>
+      <c r="G5" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>1000</v>
       </c>
-      <c r="E6">
-        <v>9000</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="4">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="4">
+        <v>140</v>
+      </c>
+      <c r="F9" s="4">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4500</v>
+      </c>
+      <c r="E10" s="4">
+        <v>120</v>
+      </c>
+      <c r="F10" s="4">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2100</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1726,14 +1942,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1745,7 +1961,7 @@
         <v>1.1</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D1">
         <v>30</v>
@@ -1753,16 +1969,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1781,128 +1997,128 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10">
+      <c r="A10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11">
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12">
+      <c r="D11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>89</v>
+      <c r="D12" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1915,15 +2131,16 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="3" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1931,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -1951,13 +2168,13 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1971,13 +2188,13 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1985,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1997,7 +2214,7 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2005,10 +2222,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -2017,7 +2234,7 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2025,10 +2242,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>18.7</v>
@@ -2037,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2045,10 +2262,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -2057,7 +2274,7 @@
         <v>100</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2065,10 +2282,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>9.2</v>
@@ -2077,7 +2294,7 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2085,10 +2302,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -2097,7 +2314,67 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <v>8.82</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11">
+        <v>4.52</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12">
+        <v>30.4</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="7"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -347,6 +347,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>购买</t>
     </r>
     <r>
@@ -639,9 +644,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -708,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,9 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1510,15 +1512,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1527,121 +1530,136 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" ht="63.75" spans="1:8">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" ht="25.5" spans="1:8">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1764,7 +1782,7 @@
       <c r="F5">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1810,7 +1828,7 @@
       <c r="F7" s="4">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2133,8 +2151,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="4"/>
+    <workbookView windowWidth="20370" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -644,8 +644,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1075,7 +1075,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>200000</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -1514,7 +1514,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1585,7 +1585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:8">
+    <row r="4" ht="25.5" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985"/>
+    <workbookView windowWidth="19800" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="questdata" sheetId="5" r:id="rId5"/>
     <sheet name="insuredata" sheetId="6" r:id="rId6"/>
     <sheet name="eventdata" sheetId="7" r:id="rId7"/>
-    <sheet name="stockdata" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst/>
@@ -22,11 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>版本号</t>
   </si>
   <si>
+    <t>登陆初始化获得</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
@@ -57,7 +59,7 @@
     <t>存款利率</t>
   </si>
   <si>
-    <t>周期</t>
+    <t>周期(单位:天)</t>
   </si>
   <si>
     <t>name</t>
@@ -165,7 +167,7 @@
     <t>签到天数</t>
   </si>
   <si>
-    <t>获得类型</t>
+    <t>获得类型(0:工资,1:经验)</t>
   </si>
   <si>
     <t>签到获得</t>
@@ -183,7 +185,10 @@
     <t>descs</t>
   </si>
   <si>
-    <t>首日</t>
+    <t>首日工资奖励</t>
+  </si>
+  <si>
+    <t>首日经验奖励</t>
   </si>
   <si>
     <t>次日</t>
@@ -207,6 +212,9 @@
     <t>奖励</t>
   </si>
   <si>
+    <t>type:0:保险,1:理财,2:股票,3:存款</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
@@ -246,10 +254,16 @@
     <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
   </si>
   <si>
+    <t>类型(0:保险，1：理财))</t>
+  </si>
+  <si>
     <t>价格</t>
   </si>
   <si>
-    <t>利润</t>
+    <t>到期利润</t>
+  </si>
+  <si>
+    <t>周期</t>
   </si>
   <si>
     <t>price</t>
@@ -447,7 +461,10 @@
     <t>事件描述</t>
   </si>
   <si>
-    <t>属性</t>
+    <t>类型(0:正向,1:反向</t>
+  </si>
+  <si>
+    <t>奖励/或者惩罚</t>
   </si>
   <si>
     <t>彩票中奖</t>
@@ -505,138 +522,6 @@
   </si>
   <si>
     <t>[{t:1,v:-800},{t:0,v:-390}]</t>
-  </si>
-  <si>
-    <t>出国旅游相机被偷ttt</t>
-  </si>
-  <si>
-    <t>跳动频率(秒)</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>涨跌幅</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>平安股票是国内保险行业的蓝筹股</t>
-  </si>
-  <si>
-    <t>中石油</t>
-  </si>
-  <si>
-    <t>国内最大的石油股票</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A</t>
-    </r>
-  </si>
-  <si>
-    <t>最大房地产股</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中兴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通讯</t>
-    </r>
-  </si>
-  <si>
-    <t>驻足深圳，面向全球的通讯设备商</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长江</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电力</t>
-    </r>
-  </si>
-  <si>
-    <t>央企</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>苏宁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电器</t>
-    </r>
-  </si>
-  <si>
-    <t>发力电子商务</t>
-  </si>
-  <si>
-    <t>中国证券</t>
-  </si>
-  <si>
-    <t>证券行业排头</t>
-  </si>
-  <si>
-    <t>龙江交通</t>
-  </si>
-  <si>
-    <t>交通部直属行业公司</t>
-  </si>
-  <si>
-    <t>古井贡酒</t>
-  </si>
-  <si>
-    <t>酒类行业股票</t>
   </si>
 </sst>
 </file>
@@ -645,9 +530,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -656,12 +541,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -713,24 +598,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1076,39 +964,42 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1.1</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1135,51 +1026,54 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1187,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1204,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1213,7 +1107,7 @@
         <v>2.2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1221,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1230,7 +1124,7 @@
         <v>3.23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1238,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1247,7 +1141,7 @@
         <v>5.87</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1157,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1281,48 +1175,48 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -1331,14 +1225,14 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -1348,14 +1242,14 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>4000</v>
@@ -1365,11 +1259,11 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>8000</v>
@@ -1379,11 +1273,11 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>12000</v>
@@ -1405,10 +1299,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1420,30 +1317,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1457,7 +1354,7 @@
         <v>3000</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1471,7 +1368,7 @@
         <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1485,7 +1382,7 @@
         <v>4000</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1499,7 +1396,7 @@
         <v>3500</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1515,13 +1412,14 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1535,132 +1433,132 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1676,12 +1574,14 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="38.375" customWidth="1"/>
   </cols>
@@ -1696,59 +1596,59 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>2000</v>
@@ -1759,19 +1659,19 @@
       <c r="F4">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>66</v>
+      <c r="G4" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>400</v>
@@ -1782,134 +1682,134 @@
       <c r="F5">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>70</v>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>1500</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>100</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>74</v>
+      <c r="G8" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>140</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>24</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>76</v>
+      <c r="G9" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>4500</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>120</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>78</v>
+      <c r="G10" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>2100</v>
@@ -1921,18 +1821,18 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1944,7 +1844,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1957,17 +1857,17 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1979,7 +1879,7 @@
         <v>1.1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1">
         <v>30</v>
@@ -1987,412 +1887,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>90</v>
+      <c r="A5" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>103</v>
+      <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
-  <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1.8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6">
-        <v>18.7</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8">
-        <v>9.2</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10">
-        <v>8.82</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11">
-        <v>4.52</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12">
-        <v>30.4</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="8985"/>
+    <workbookView windowWidth="19800" windowHeight="8985" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,17 @@
     <sheet name="insuredata" sheetId="6" r:id="rId6"/>
     <sheet name="eventdata" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">insuredata!$A$3:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">signindata!$A$3:$F$3</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>版本号</t>
   </si>
@@ -77,13 +81,19 @@
     <t>活期</t>
   </si>
   <si>
-    <t>一年期</t>
-  </si>
-  <si>
-    <t>两年期</t>
-  </si>
-  <si>
-    <t>三年期</t>
+    <t>半年期</t>
+  </si>
+  <si>
+    <t>1年期</t>
+  </si>
+  <si>
+    <t>2年期</t>
+  </si>
+  <si>
+    <t>3年期</t>
+  </si>
+  <si>
+    <t>5年期</t>
   </si>
   <si>
     <t>主键</t>
@@ -101,7 +111,148 @@
     <t>desc</t>
   </si>
   <si>
-    <t>初来乍到</t>
+    <t>新手上路</t>
+  </si>
+  <si>
+    <t>无需描述</t>
+  </si>
+  <si>
+    <t>炒股小虾</t>
+  </si>
+  <si>
+    <t>后起之秀</t>
+  </si>
+  <si>
+    <t>理财能手</t>
+  </si>
+  <si>
+    <t>理财高手</t>
+  </si>
+  <si>
+    <t>理财奇侠</t>
+  </si>
+  <si>
+    <t>无双隐士</t>
+  </si>
+  <si>
+    <t>世外高人</t>
+  </si>
+  <si>
+    <t>理财圣手</t>
+  </si>
+  <si>
+    <t>点石成金</t>
+  </si>
+  <si>
+    <t>签到天数</t>
+  </si>
+  <si>
+    <t>获得类型(0:工资,1:经验)</t>
+  </si>
+  <si>
+    <t>签到获得</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>descs</t>
+  </si>
+  <si>
+    <t>首日工资奖励</t>
+  </si>
+  <si>
+    <t>次日</t>
+  </si>
+  <si>
+    <t>首日经验奖励</t>
+  </si>
+  <si>
+    <t>任务名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>任务条件</t>
+  </si>
+  <si>
+    <t>所需</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>type:0:保险,1:理财,2:股票,3:存款</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>prize</t>
+  </si>
+  <si>
+    <t>股票购买</t>
+  </si>
+  <si>
+    <t>去购买任何一支股票，完成任务有现金奖励</t>
+  </si>
+  <si>
+    <t>[{t:1,v:100}]</t>
+  </si>
+  <si>
+    <t>[{t:1,v:1}]</t>
+  </si>
+  <si>
+    <t>[{t:1,v:100},{t:2,v:300}]</t>
+  </si>
+  <si>
+    <t>参保</t>
+  </si>
+  <si>
+    <t>参保一家公司保险</t>
+  </si>
+  <si>
+    <t>投资理财任务</t>
+  </si>
+  <si>
+    <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
+  </si>
+  <si>
+    <t>类型(0:保险，1：理财))</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>到期利润</t>
+  </si>
+  <si>
+    <t>周期</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>乐享理财</t>
   </si>
   <si>
     <r>
@@ -110,7 +261,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>当天</t>
+      <t>购买</t>
     </r>
     <r>
       <rPr>
@@ -118,7 +269,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>财富增长</t>
+      <t>后，将在</t>
     </r>
     <r>
       <rPr>
@@ -126,7 +277,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>超过</t>
+      <t>一定时间</t>
     </r>
     <r>
       <rPr>
@@ -134,7 +285,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
+      <t>后获得固定收益，</t>
     </r>
     <r>
       <rPr>
@@ -142,134 +293,49 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>0K</t>
+      <t>保本</t>
     </r>
-  </si>
-  <si>
-    <t>登堂入室</t>
-  </si>
-  <si>
-    <t>曾获得过财富榜第一名</t>
-  </si>
-  <si>
-    <t>略有小成</t>
-  </si>
-  <si>
-    <t>中土豆</t>
-  </si>
-  <si>
-    <t>渐入佳境</t>
-  </si>
-  <si>
-    <t>炉火纯青</t>
-  </si>
-  <si>
-    <t>签到天数</t>
-  </si>
-  <si>
-    <t>获得类型(0:工资,1:经验)</t>
-  </si>
-  <si>
-    <t>签到获得</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>descs</t>
-  </si>
-  <si>
-    <t>首日工资奖励</t>
-  </si>
-  <si>
-    <t>首日经验奖励</t>
-  </si>
-  <si>
-    <t>次日</t>
-  </si>
-  <si>
-    <t>任务名</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>任务条件</t>
-  </si>
-  <si>
-    <t>所需</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>type:0:保险,1:理财,2:股票,3:存款</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>prize</t>
-  </si>
-  <si>
-    <t>股票购买</t>
-  </si>
-  <si>
-    <t>去购买任何一支股票，完成任务有现金奖励</t>
-  </si>
-  <si>
-    <t>[{t:1,v:100}]</t>
-  </si>
-  <si>
-    <t>[{t:1,v:1}]</t>
-  </si>
-  <si>
-    <t>[{t:1,v:100},{t:2,v:300}]</t>
-  </si>
-  <si>
-    <t>参保</t>
-  </si>
-  <si>
-    <t>参保一家公司保险</t>
-  </si>
-  <si>
-    <t>投资理财任务</t>
-  </si>
-  <si>
-    <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
-  </si>
-  <si>
-    <t>类型(0:保险，1：理财))</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>到期利润</t>
-  </si>
-  <si>
-    <t>周期</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>profit</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无风险</t>
+    </r>
+  </si>
+  <si>
+    <t>少儿分红保险</t>
+  </si>
+  <si>
+    <t>教育金、满期生存保险金、身故保险金、可附加豁免保险费意外伤害保险、可附加意外伤害医疗保险</t>
+  </si>
+  <si>
+    <t>美满人生</t>
+  </si>
+  <si>
+    <t>确保美满你的一生</t>
+  </si>
+  <si>
+    <t>养老基金</t>
+  </si>
+  <si>
+    <t>养老也能赚钱</t>
+  </si>
+  <si>
+    <t>意外险</t>
+  </si>
+  <si>
+    <t>投保后，在保险期间，可以规避对应的风险，规避经济上的损失</t>
+  </si>
+  <si>
+    <t>财产保险</t>
+  </si>
+  <si>
+    <t>旅游保险</t>
+  </si>
+  <si>
+    <t>健康保险</t>
   </si>
   <si>
     <t>平安车险</t>
@@ -357,171 +423,402 @@
     </r>
   </si>
   <si>
-    <t>乐享理财</t>
+    <t>触发周期(分钟)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>事件描述</t>
+  </si>
+  <si>
+    <t>类型(0:正向,1:反向</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>购买</t>
+      <t>奖励/或者惩罚（</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>后，将在</t>
+      <t>0:金钱 1:经验</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一定时间</t>
+      <t>）</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后获得固定收益，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无风险</t>
-    </r>
-  </si>
-  <si>
-    <t>意外险</t>
-  </si>
-  <si>
-    <t>投保后，在保险期间，可以规避对应的风险，规避经济上的损失</t>
-  </si>
-  <si>
-    <t>少儿分红保险</t>
-  </si>
-  <si>
-    <t>教育金、满期生存保险金、身故保险金、可附加豁免保险费意外伤害保险、可附加意外伤害医疗保险</t>
-  </si>
-  <si>
-    <t>美满人生</t>
-  </si>
-  <si>
-    <t>确保美满你的一生</t>
-  </si>
-  <si>
-    <t>养老基金</t>
-  </si>
-  <si>
-    <t>养老也能赚钱</t>
-  </si>
-  <si>
-    <t>万能险</t>
-  </si>
-  <si>
-    <t>什么都可以保</t>
-  </si>
-  <si>
-    <t>医疗保险</t>
-  </si>
-  <si>
-    <t>除重大疾病外的普通病保险</t>
-  </si>
-  <si>
-    <t>重大疾病保险</t>
-  </si>
-  <si>
-    <t>重大疾病参保</t>
-  </si>
-  <si>
-    <t>触发周期(分钟)</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>事件描述</t>
-  </si>
-  <si>
-    <t>类型(0:正向,1:反向</t>
-  </si>
-  <si>
-    <t>奖励/或者惩罚</t>
-  </si>
-  <si>
-    <t>彩票中奖</t>
+  </si>
+  <si>
+    <t>保险保障类型:对应到insuredata.id)</t>
+  </si>
+  <si>
+    <t>itemid</t>
+  </si>
+  <si>
+    <t>意外受伤</t>
+  </si>
+  <si>
+    <t>出门遭遇高空坠物</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-2000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>意外扭伤</t>
+  </si>
+  <si>
+    <t>乘坐公交车发生意外，扭伤脚</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-1000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>乘坐的士发生意外，头部撞伤</t>
+  </si>
+  <si>
+    <t>意外烫伤</t>
+  </si>
+  <si>
+    <t>在家烧烤，意外烫伤</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-800，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>意外骨折</t>
+  </si>
+  <si>
+    <t>打篮球意外受伤，手臂骨折</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-5000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>海岸线穿越摔伤，脚踝扭伤</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-1500，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>驾车出行，车辆相撞，头部受伤</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-6000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>户外烧烤，意外烫伤</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-200，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>度假受伤</t>
+  </si>
+  <si>
+    <t>乡下度假，被蜜蜂蛰伤</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-500，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>被宠物咬伤</t>
+  </si>
+  <si>
+    <t>被邻居狗狗咬伤</t>
+  </si>
+  <si>
+    <t>财产意外损失</t>
+  </si>
+  <si>
+    <t>保险柜被撬，损失</t>
+  </si>
+  <si>
+    <t>店铺发生火灾</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-10000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>家里爆水管</t>
+  </si>
+  <si>
+    <t>家里被盗，丢失笔记本电脑一台</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-3000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>私家车被盗零件</t>
+  </si>
+  <si>
+    <t>银行卡密码被盗</t>
+  </si>
+  <si>
+    <t>支付宝密码被盗</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-4000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>信用卡被盗刷</t>
+  </si>
+  <si>
+    <t>发快递丢失，损失</t>
+  </si>
+  <si>
+    <t>电脑被破解，银行密码泄露</t>
+  </si>
+  <si>
+    <t>旅游意外损失</t>
+  </si>
+  <si>
+    <t>出国旅游相机被偷</t>
+  </si>
+  <si>
+    <t>旅游意外受伤</t>
+  </si>
+  <si>
+    <t>短途旅游摔伤</t>
+  </si>
+  <si>
+    <t>旅游意外不适</t>
+  </si>
+  <si>
+    <t>西藏旅游高原反应</t>
+  </si>
+  <si>
+    <t>去内蒙古旅游，从马上摔下</t>
+  </si>
+  <si>
+    <t>出境旅游跳伞扭伤</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-1800，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>日本旅游滑雪扭伤</t>
+  </si>
+  <si>
+    <t>海南潜水患减压病</t>
+  </si>
+  <si>
+    <t>出游蹦极肌肉拉伤</t>
+  </si>
+  <si>
+    <t>美国旅游时，心脏病发</t>
+  </si>
+  <si>
+    <t>旅游期间交通意外受伤</t>
+  </si>
+  <si>
+    <t>突发疾病</t>
+  </si>
+  <si>
+    <t>急性肺炎，医疗费与误工费</t>
+  </si>
+  <si>
+    <t>急性胃炎，医疗费与误工费</t>
+  </si>
+  <si>
+    <t>急性肠胃炎</t>
+  </si>
+  <si>
+    <t>感冒发烧</t>
+  </si>
+  <si>
+    <t>食物中毒</t>
+  </si>
+  <si>
+    <t>皮肤病</t>
+  </si>
+  <si>
+    <t>急性肝炎</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-2500，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>登革热</t>
+  </si>
+  <si>
+    <t>贫血</t>
+  </si>
+  <si>
+    <t>急性肾炎</t>
+  </si>
+  <si>
+    <t>交通意外</t>
+  </si>
+  <si>
+    <t>车辆擦碰，损失</t>
+  </si>
+  <si>
+    <t>发动机故障，损失</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-8000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>停车场发生火灾，车辆受损</t>
+  </si>
+  <si>
+    <t>[{t:1,v:-9000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>自家宝马放在停车场被划</t>
+  </si>
+  <si>
+    <t>自家奔驰出行，刹车不及，擦碰</t>
+  </si>
+  <si>
+    <t>开车接送姑妈时发生交通事故，爆车胎</t>
+  </si>
+  <si>
+    <t>开车上班，途中发生事故，发动机故障</t>
+  </si>
+  <si>
+    <t>开车上班，途中发生事故，手臂受伤</t>
+  </si>
+  <si>
+    <t>开车接送邻居阿姨时发生交通事故，阿姨受伤</t>
+  </si>
+  <si>
+    <t>开车接送侄子时发生交通事故，侄子受伤</t>
+  </si>
+  <si>
+    <t>意外收入</t>
+  </si>
+  <si>
+    <t>彩票中三等奖</t>
+  </si>
+  <si>
+    <t>[{t:1,v:3000，{t:0,v:0}]</t>
   </si>
   <si>
     <t>彩票中一等奖</t>
   </si>
   <si>
-    <t>[{t:1,v:200},{t:0,v:300}]</t>
-  </si>
-  <si>
-    <t>意外保险</t>
+    <t>[{t:1,v:5000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>彩票中二等奖</t>
+  </si>
+  <si>
+    <t>[{t:1,v:10000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>获得遗产</t>
+  </si>
+  <si>
+    <t>参与歌唱比赛获得奖金</t>
+  </si>
+  <si>
+    <t>[{t:1,v:2000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>平安答谢客户发放月饼卡</t>
+  </si>
+  <si>
+    <t>[{t:1,v:1000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>获得季度奖金</t>
+  </si>
+  <si>
+    <t>[{t:1,v:8000，{t:0,v:0}]</t>
   </si>
   <si>
     <t>获得年终绩效奖金</t>
   </si>
   <si>
-    <t>[{t:1,v:200},{t:0,v:5100}]</t>
-  </si>
-  <si>
-    <t>旅游保险</t>
+    <t>与同事打扑克赢钱</t>
+  </si>
+  <si>
+    <t>[{t:1,v:500，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>与同事打麻将赢钱</t>
+  </si>
+  <si>
+    <t>[{t:1,v:1500，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>与同事打赌赢钱</t>
   </si>
   <si>
     <t>吃海鲜吃出珍珠</t>
   </si>
   <si>
-    <t>[{t:1,v:450},{t:0,v:300}]</t>
+    <t>[{t:1,v:200，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>种地挖出文物</t>
   </si>
   <si>
     <t>变卖家传文物</t>
   </si>
   <si>
-    <t>[{t:1,v:20},{t:0,v:800}]</t>
-  </si>
-  <si>
-    <t>出门遭遇高空坠物</t>
-  </si>
-  <si>
-    <t>[{t:1,v:-2000},{t:0,v:-8000}]</t>
-  </si>
-  <si>
-    <t>家里被盗，丢失笔记本电脑一台</t>
-  </si>
-  <si>
-    <t>[{t:1,v:-1222},{t:0,v:-900}]</t>
-  </si>
-  <si>
-    <t>店铺发生火灾</t>
-  </si>
-  <si>
-    <t>[{t:1,v:-22},{t:0,v:-90}]</t>
-  </si>
-  <si>
-    <t>出国旅游相机被偷</t>
-  </si>
-  <si>
-    <t>[{t:1,v:-800},{t:0,v:-390}]</t>
+    <t>路边捡到彩票中奖</t>
+  </si>
+  <si>
+    <t>路边捡到钱</t>
+  </si>
+  <si>
+    <t>路边捡到房产证，归还失主，获得酬金</t>
+  </si>
+  <si>
+    <t>救了土豪一命，获得感谢金</t>
+  </si>
+  <si>
+    <t>世界杯赌球，获得奖金</t>
+  </si>
+  <si>
+    <t>发票中奖</t>
+  </si>
+  <si>
+    <t>公司发放里程碑奖金</t>
+  </si>
+  <si>
+    <t>登革热肆虐，投资药品获得利润</t>
+  </si>
+  <si>
+    <t>变卖金饰，获得利润</t>
+  </si>
+  <si>
+    <t>倒卖房子，获得利润</t>
+  </si>
+  <si>
+    <t>生意上门，获得利润</t>
+  </si>
+  <si>
+    <t>赌玉获得利润</t>
+  </si>
+  <si>
+    <t>卖出珍藏邮票，获得利润</t>
+  </si>
+  <si>
+    <t>收藏奇石，获得利润</t>
+  </si>
+  <si>
+    <t>[{t:1,v:6000，{t:0,v:0}]</t>
+  </si>
+  <si>
+    <t>情人节卖花，获得利润</t>
+  </si>
+  <si>
+    <t>年末花市卖花，获得利润</t>
   </si>
 </sst>
 </file>
@@ -529,12 +826,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="12">
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -542,6 +844,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -557,19 +878,59 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -577,12 +938,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,37 +998,90 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="8" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="60% - 着色 5" xfId="2"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="60% - 着色 2" xfId="7"/>
+    <cellStyle name="60% - 着色 4" xfId="8"/>
+    <cellStyle name="差" xfId="9"/>
+    <cellStyle name="好" xfId="10"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -963,8 +1417,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -974,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1010,7 +1464,7 @@
         <v>200000</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1023,13 +1477,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
@@ -1039,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1087,61 +1541,95 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3.23</v>
+        <v>2.75</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>5.87</v>
+        <v>3.35</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
         <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4.75</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1154,15 +1642,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1170,27 +1658,27 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1207,83 +1695,174 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
+    <row r="4" ht="15" spans="1:5">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16">
         <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
+    <row r="5" ht="15.75" spans="1:5">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D5">
-        <v>2000</v>
+      <c r="D5" s="18">
+        <v>80</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D6">
-        <v>4000</v>
+      <c r="C6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="18">
+        <v>120</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
+    <row r="7" ht="15.75" spans="1:5">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7">
-        <v>8000</v>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="18">
+        <v>190</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
+    <row r="8" ht="15.75" spans="1:5">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D8">
-        <v>12000</v>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="18">
+        <v>310</v>
       </c>
       <c r="E8">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:5">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:5">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="18">
+        <v>780</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1170</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:5">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1690</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:5">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2360</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1296,15 +1875,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1312,35 +1892,35 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1351,52 +1931,162 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>4000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3500</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +2102,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1420,7 +2110,9 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="7" max="7" width="39" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1433,28 +2125,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:8">
@@ -1465,100 +2157,100 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1573,17 +2265,17 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="38.375" customWidth="1"/>
+    <col min="7" max="7" width="73.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1591,30 +2283,30 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1628,214 +2320,214 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:7">
-      <c r="A4" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="4">
+        <v>140</v>
+      </c>
+      <c r="F7" s="4">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" spans="1:7">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="G7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>400</v>
       </c>
-      <c r="E5">
-        <v>90</v>
-      </c>
-      <c r="F5">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" spans="1:7">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>79</v>
+      <c r="G8" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>80</v>
+      <c r="B9" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E9" s="3">
-        <v>140</v>
-      </c>
-      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>700</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>24</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>81</v>
+      <c r="G9" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>82</v>
+      <c r="B10" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="3">
-        <v>4500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>120</v>
-      </c>
-      <c r="F10" s="3">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>83</v>
+      <c r="D10" s="4">
+        <v>400</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>450</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2100</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>86</v>
+      <c r="B12" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1843,8 +2535,8 @@
       <c r="F12">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
-        <v>87</v>
+      <c r="G12" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1857,18 +2549,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1876,153 +2569,1407 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B4" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B5" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -827,16 +827,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -873,11 +868,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -983,7 +973,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,51 +988,48 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="8" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="8" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1054,19 +1041,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1418,7 +1402,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1480,7 +1464,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1645,7 +1629,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1696,16 +1680,16 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1713,16 +1697,16 @@
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>80</v>
       </c>
       <c r="E5">
@@ -1730,16 +1714,16 @@
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>120</v>
       </c>
       <c r="E6">
@@ -1747,16 +1731,16 @@
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>190</v>
       </c>
       <c r="E7">
@@ -1764,16 +1748,16 @@
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>310</v>
       </c>
       <c r="E8">
@@ -1781,16 +1765,16 @@
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>500</v>
       </c>
       <c r="E9">
@@ -1798,16 +1782,16 @@
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>780</v>
       </c>
       <c r="E10">
@@ -1815,16 +1799,16 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>1170</v>
       </c>
       <c r="E11">
@@ -1832,16 +1816,16 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>1690</v>
       </c>
       <c r="E12">
@@ -1849,16 +1833,16 @@
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>2360</v>
       </c>
       <c r="E13">
@@ -2102,7 +2086,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -2159,7 +2143,7 @@
       <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E3" t="s">
@@ -2176,13 +2160,13 @@
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:8">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D4">
@@ -2202,13 +2186,13 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D5">
@@ -2228,7 +2212,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -2266,7 +2250,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2333,7 +2317,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -2351,176 +2335,176 @@
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>1500</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>6000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>1000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>1800</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>140</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>24</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>400</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>700</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>24</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>400</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>450</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>24</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C12">
@@ -2535,7 +2519,7 @@
       <c r="F12">
         <v>24</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2619,7 +2603,7 @@
       <c r="B4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2636,7 +2620,7 @@
       <c r="B5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2653,7 +2637,7 @@
       <c r="B6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2670,7 +2654,7 @@
       <c r="B7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2687,7 +2671,7 @@
       <c r="B8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2704,7 +2688,7 @@
       <c r="B9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2721,7 +2705,7 @@
       <c r="B10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2738,7 +2722,7 @@
       <c r="B11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2755,7 +2739,7 @@
       <c r="B12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2772,7 +2756,7 @@
       <c r="B13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2786,10 +2770,10 @@
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2803,10 +2787,10 @@
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2820,10 +2804,10 @@
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2837,10 +2821,10 @@
       <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2854,10 +2838,10 @@
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2871,10 +2855,10 @@
       <c r="A19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2888,10 +2872,10 @@
       <c r="A20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2905,10 +2889,10 @@
       <c r="A21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2922,10 +2906,10 @@
       <c r="A22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2939,10 +2923,10 @@
       <c r="A23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2956,10 +2940,10 @@
       <c r="A24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2973,10 +2957,10 @@
       <c r="A25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2990,10 +2974,10 @@
       <c r="A26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3007,10 +2991,10 @@
       <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3024,10 +3008,10 @@
       <c r="A28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3041,10 +3025,10 @@
       <c r="A29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3058,10 +3042,10 @@
       <c r="A30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3075,10 +3059,10 @@
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3092,10 +3076,10 @@
       <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3109,10 +3093,10 @@
       <c r="A33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3126,10 +3110,10 @@
       <c r="A34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3143,10 +3127,10 @@
       <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3160,10 +3144,10 @@
       <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3177,10 +3161,10 @@
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3194,10 +3178,10 @@
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3211,10 +3195,10 @@
       <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3228,10 +3212,10 @@
       <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3245,10 +3229,10 @@
       <c r="A41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3262,10 +3246,10 @@
       <c r="A42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3279,10 +3263,10 @@
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3296,10 +3280,10 @@
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3313,10 +3297,10 @@
       <c r="A45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3330,10 +3314,10 @@
       <c r="A46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3347,10 +3331,10 @@
       <c r="A47" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3364,10 +3348,10 @@
       <c r="A48" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3381,10 +3365,10 @@
       <c r="A49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3398,10 +3382,10 @@
       <c r="A50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3415,10 +3399,10 @@
       <c r="A51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3432,10 +3416,10 @@
       <c r="A52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3449,10 +3433,10 @@
       <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3469,7 +3453,7 @@
       <c r="B54" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3486,7 +3470,7 @@
       <c r="B55" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3503,7 +3487,7 @@
       <c r="B56" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -3520,7 +3504,7 @@
       <c r="B57" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -3537,7 +3521,7 @@
       <c r="B58" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -3554,7 +3538,7 @@
       <c r="B59" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3571,7 +3555,7 @@
       <c r="B60" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -3588,7 +3572,7 @@
       <c r="B61" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -3605,7 +3589,7 @@
       <c r="B62" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -3622,7 +3606,7 @@
       <c r="B63" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3639,7 +3623,7 @@
       <c r="B64" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3656,7 +3640,7 @@
       <c r="B65" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -3673,7 +3657,7 @@
       <c r="B66" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -3690,7 +3674,7 @@
       <c r="B67" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -3707,7 +3691,7 @@
       <c r="B68" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -3724,7 +3708,7 @@
       <c r="B69" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -3741,7 +3725,7 @@
       <c r="B70" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -3758,7 +3742,7 @@
       <c r="B71" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3775,7 +3759,7 @@
       <c r="B72" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -3792,7 +3776,7 @@
       <c r="B73" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -3809,7 +3793,7 @@
       <c r="B74" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -3826,7 +3810,7 @@
       <c r="B75" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -3843,7 +3827,7 @@
       <c r="B76" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -3860,7 +3844,7 @@
       <c r="B77" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -3877,7 +3861,7 @@
       <c r="B78" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3894,7 +3878,7 @@
       <c r="B79" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -3911,7 +3895,7 @@
       <c r="B80" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -3928,7 +3912,7 @@
       <c r="B81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -3945,7 +3929,7 @@
       <c r="B82" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -3962,7 +3946,7 @@
       <c r="B83" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="8985" activeTab="5"/>
+    <workbookView windowWidth="19800" windowHeight="8985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">signindata!$A$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -828,8 +827,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1463,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1525,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>0.35</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -2249,7 +2248,7 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="8985" activeTab="1"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>版本号</t>
   </si>
@@ -62,7 +62,7 @@
     <t>存款利率</t>
   </si>
   <si>
-    <t>周期(单位:天)</t>
+    <t>周期(单位:年)</t>
   </si>
   <si>
     <t>name</t>
@@ -434,30 +434,7 @@
     <t>类型(0:正向,1:反向</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励/或者惩罚（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0:金钱 1:经验</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>奖励/或者惩罚（金钱:0,经验:1）</t>
   </si>
   <si>
     <t>保险保障类型:对应到insuredata.id)</t>
@@ -472,7 +449,7 @@
     <t>出门遭遇高空坠物</t>
   </si>
   <si>
-    <t>[{t:1,v:-2000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-2000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>意外扭伤</t>
@@ -481,7 +458,7 @@
     <t>乘坐公交车发生意外，扭伤脚</t>
   </si>
   <si>
-    <t>[{t:1,v:-1000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-1000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>乘坐的士发生意外，头部撞伤</t>
@@ -493,7 +470,7 @@
     <t>在家烧烤，意外烫伤</t>
   </si>
   <si>
-    <t>[{t:1,v:-800，{t:0,v:0}]</t>
+    <t>[{t:0,v:-800}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>意外骨折</t>
@@ -502,25 +479,25 @@
     <t>打篮球意外受伤，手臂骨折</t>
   </si>
   <si>
-    <t>[{t:1,v:-5000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-5000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>海岸线穿越摔伤，脚踝扭伤</t>
   </si>
   <si>
-    <t>[{t:1,v:-1500，{t:0,v:0}]</t>
+    <t>[{t:0,v:-1500}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>驾车出行，车辆相撞，头部受伤</t>
   </si>
   <si>
-    <t>[{t:1,v:-6000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-6000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>户外烧烤，意外烫伤</t>
   </si>
   <si>
-    <t>[{t:1,v:-200，{t:0,v:0}]</t>
+    <t>[{t:0,v:-200}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>度假受伤</t>
@@ -529,7 +506,7 @@
     <t>乡下度假，被蜜蜂蛰伤</t>
   </si>
   <si>
-    <t>[{t:1,v:-500，{t:0,v:0}]</t>
+    <t>[{t:0,v:-500}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>被宠物咬伤</t>
@@ -547,7 +524,7 @@
     <t>店铺发生火灾</t>
   </si>
   <si>
-    <t>[{t:1,v:-10000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-10000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>家里爆水管</t>
@@ -556,7 +533,7 @@
     <t>家里被盗，丢失笔记本电脑一台</t>
   </si>
   <si>
-    <t>[{t:1,v:-3000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-3000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>私家车被盗零件</t>
@@ -568,18 +545,27 @@
     <t>支付宝密码被盗</t>
   </si>
   <si>
-    <t>[{t:1,v:-4000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-4000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>信用卡被盗刷</t>
   </si>
   <si>
+    <t>[{t:0,v:-5000},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>发快递丢失，损失</t>
   </si>
   <si>
+    <t>[{t:0,v:-500},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>电脑被破解，银行密码泄露</t>
   </si>
   <si>
+    <t>[{t:0,v:-3000},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>旅游意外损失</t>
   </si>
   <si>
@@ -592,19 +578,25 @@
     <t>短途旅游摔伤</t>
   </si>
   <si>
+    <t>[{t:0,v:-2000},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>旅游意外不适</t>
   </si>
   <si>
     <t>西藏旅游高原反应</t>
   </si>
   <si>
+    <t>[{t:0,v:-1500},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>去内蒙古旅游，从马上摔下</t>
   </si>
   <si>
     <t>出境旅游跳伞扭伤</t>
   </si>
   <si>
-    <t>[{t:1,v:-1800，{t:0,v:0}]</t>
+    <t>[{t:0,v:-1800},{t:1,v:0}]</t>
   </si>
   <si>
     <t>日本旅游滑雪扭伤</t>
@@ -640,13 +632,16 @@
     <t>食物中毒</t>
   </si>
   <si>
+    <t>[{t:0,v:-1000},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>皮肤病</t>
   </si>
   <si>
     <t>急性肝炎</t>
   </si>
   <si>
-    <t>[{t:1,v:-2500，{t:0,v:0}]</t>
+    <t>[{t:0,v:-2500},{t:1,v:0}]</t>
   </si>
   <si>
     <t>登革热</t>
@@ -667,13 +662,13 @@
     <t>发动机故障，损失</t>
   </si>
   <si>
-    <t>[{t:1,v:-8000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-8000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>停车场发生火灾，车辆受损</t>
   </si>
   <si>
-    <t>[{t:1,v:-9000，{t:0,v:0}]</t>
+    <t>[{t:0,v:-9000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>自家宝马放在停车场被划</t>
@@ -703,19 +698,19 @@
     <t>彩票中三等奖</t>
   </si>
   <si>
-    <t>[{t:1,v:3000，{t:0,v:0}]</t>
+    <t>[{t:0,v:3000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>彩票中一等奖</t>
   </si>
   <si>
-    <t>[{t:1,v:5000，{t:0,v:0}]</t>
+    <t>[{t:0,v:5000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>彩票中二等奖</t>
   </si>
   <si>
-    <t>[{t:1,v:10000，{t:0,v:0}]</t>
+    <t>[{t:0,v:10000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>获得遗产</t>
@@ -724,19 +719,19 @@
     <t>参与歌唱比赛获得奖金</t>
   </si>
   <si>
-    <t>[{t:1,v:2000，{t:0,v:0}]</t>
+    <t>[{t:0,v:2000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>平安答谢客户发放月饼卡</t>
   </si>
   <si>
-    <t>[{t:1,v:1000，{t:0,v:0}]</t>
+    <t>[{t:0,v:1000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>获得季度奖金</t>
   </si>
   <si>
-    <t>[{t:1,v:8000，{t:0,v:0}]</t>
+    <t>[{t:0,v:8000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>获得年终绩效奖金</t>
@@ -745,13 +740,13 @@
     <t>与同事打扑克赢钱</t>
   </si>
   <si>
-    <t>[{t:1,v:500，{t:0,v:0}]</t>
+    <t>[{t:0,v:500},{t:1,v:0}]</t>
   </si>
   <si>
     <t>与同事打麻将赢钱</t>
   </si>
   <si>
-    <t>[{t:1,v:1500，{t:0,v:0}]</t>
+    <t>[{t:0,v:1500},{t:1,v:0}]</t>
   </si>
   <si>
     <t>与同事打赌赢钱</t>
@@ -760,7 +755,7 @@
     <t>吃海鲜吃出珍珠</t>
   </si>
   <si>
-    <t>[{t:1,v:200，{t:0,v:0}]</t>
+    <t>[{t:0,v:200},{t:1,v:0}]</t>
   </si>
   <si>
     <t>种地挖出文物</t>
@@ -811,7 +806,7 @@
     <t>收藏奇石，获得利润</t>
   </si>
   <si>
-    <t>[{t:1,v:6000，{t:0,v:0}]</t>
+    <t>[{t:0,v:6000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>情人节卖花，获得利润</t>
@@ -825,10 +820,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1462,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1476,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1527,7 +1522,7 @@
         <v>0.35</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2534,8 +2529,8 @@
   <sheetPr/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2895,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -2906,13 +2901,13 @@
         <v>121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2923,13 +2918,13 @@
         <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2937,16 +2932,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -2954,16 +2949,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2971,16 +2966,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -2988,16 +2983,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -3005,16 +3000,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3022,16 +3017,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -3039,16 +3034,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -3056,16 +3051,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -3073,16 +3068,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -3090,16 +3085,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -3107,16 +3102,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -3124,16 +3119,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -3141,16 +3136,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -3158,16 +3153,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -3175,16 +3170,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -3192,16 +3187,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -3209,16 +3204,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -3226,16 +3221,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -3243,16 +3238,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -3260,16 +3255,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E43">
         <v>8</v>
@@ -3277,16 +3272,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E44">
         <v>9</v>
@@ -3294,16 +3289,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E45">
         <v>9</v>
@@ -3311,16 +3306,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E46">
         <v>9</v>
@@ -3328,16 +3323,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E47">
         <v>9</v>
@@ -3345,16 +3340,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E48">
         <v>9</v>
@@ -3362,16 +3357,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E49">
         <v>9</v>
@@ -3379,16 +3374,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -3396,16 +3391,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E51">
         <v>9</v>
@@ -3413,16 +3408,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E52">
         <v>9</v>
@@ -3430,16 +3425,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E53">
         <v>9</v>
@@ -3447,16 +3442,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3464,16 +3459,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3481,16 +3476,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3498,16 +3493,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3515,16 +3510,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3532,16 +3527,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3549,16 +3544,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3566,16 +3561,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3583,16 +3578,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -3600,16 +3595,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3617,16 +3612,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3634,16 +3629,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -3651,16 +3646,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3668,16 +3663,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3685,16 +3680,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -3702,16 +3697,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3719,16 +3714,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3736,16 +3731,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -3753,16 +3748,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -3770,16 +3765,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -3787,16 +3782,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -3804,16 +3799,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3821,16 +3816,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3838,16 +3833,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -3855,16 +3850,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -3872,16 +3867,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3889,16 +3884,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3906,16 +3901,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3923,16 +3918,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -3940,16 +3935,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E83">
         <v>4</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="6"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>版本号</t>
   </si>
@@ -176,33 +176,12 @@
     <t>任务名</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>任务条件</t>
-  </si>
-  <si>
-    <t>所需</t>
-  </si>
-  <si>
-    <t>目标</t>
+    <t>类型:0:保险,1:理财,2:股票购买,3:股票抛售,4:存款</t>
   </si>
   <si>
     <t>奖励</t>
   </si>
   <si>
-    <t>type:0:保险,1:理财,2:股票,3:存款</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>prize</t>
   </si>
   <si>
@@ -212,25 +191,31 @@
     <t>去购买任何一支股票，完成任务有现金奖励</t>
   </si>
   <si>
-    <t>[{t:1,v:100}]</t>
-  </si>
-  <si>
-    <t>[{t:1,v:1}]</t>
-  </si>
-  <si>
     <t>[{t:1,v:100},{t:2,v:300}]</t>
   </si>
   <si>
     <t>参保</t>
   </si>
   <si>
-    <t>参保一家公司保险</t>
+    <t>购买一个保险产品</t>
   </si>
   <si>
     <t>投资理财任务</t>
   </si>
   <si>
     <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
+  </si>
+  <si>
+    <t>存款到银行</t>
+  </si>
+  <si>
+    <t>去银行定期存款</t>
+  </si>
+  <si>
+    <t>z抛售股票</t>
+  </si>
+  <si>
+    <t>抛售一支股票</t>
   </si>
   <si>
     <t>类型(0:保险，1：理财))</t>
@@ -821,9 +806,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -2077,20 +2062,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2098,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2117,17 +2100,8 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:8">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2138,97 +2112,95 @@
         <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:5">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:8">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2272,16 +2244,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -2298,10 +2270,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -2315,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2330,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2338,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2353,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2361,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2376,7 +2348,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2384,7 +2356,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2399,7 +2371,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2407,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2422,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2430,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2445,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2453,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2468,7 +2440,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2476,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2491,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2499,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2514,7 +2486,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2529,8 +2501,8 @@
   <sheetPr/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2550,7 +2522,7 @@
         <v>2.1</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1">
         <v>30</v>
@@ -2558,19 +2530,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2584,24 +2556,24 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2609,16 +2581,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2626,16 +2598,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2643,16 +2615,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2660,16 +2632,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2677,16 +2649,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2694,16 +2666,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -2711,16 +2683,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -2728,16 +2700,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -2745,16 +2717,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -2762,16 +2734,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2779,16 +2751,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -2796,16 +2768,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -2813,16 +2785,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -2830,16 +2802,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2847,16 +2819,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2864,16 +2836,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -2881,16 +2853,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -2898,16 +2870,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2915,16 +2887,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2932,16 +2904,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -2949,16 +2921,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2966,16 +2938,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -2983,16 +2955,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -3000,16 +2972,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3017,16 +2989,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -3034,16 +3006,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -3051,16 +3023,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -3068,16 +3040,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -3085,16 +3057,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -3102,16 +3074,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -3119,16 +3091,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -3136,16 +3108,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -3153,16 +3125,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -3170,16 +3142,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -3187,16 +3159,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -3204,16 +3176,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -3221,16 +3193,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -3238,16 +3210,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -3255,16 +3227,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E43">
         <v>8</v>
@@ -3272,16 +3244,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E44">
         <v>9</v>
@@ -3289,16 +3261,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E45">
         <v>9</v>
@@ -3306,16 +3278,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E46">
         <v>9</v>
@@ -3323,16 +3295,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E47">
         <v>9</v>
@@ -3340,16 +3312,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E48">
         <v>9</v>
@@ -3357,16 +3329,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E49">
         <v>9</v>
@@ -3374,16 +3346,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -3391,16 +3363,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E51">
         <v>9</v>
@@ -3408,16 +3380,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E52">
         <v>9</v>
@@ -3425,16 +3397,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E53">
         <v>9</v>
@@ -3442,16 +3414,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3459,16 +3431,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3476,16 +3448,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3493,16 +3465,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3510,16 +3482,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3527,16 +3499,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3544,16 +3516,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3561,16 +3533,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3578,16 +3550,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -3595,16 +3567,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3612,16 +3584,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3629,16 +3601,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -3646,16 +3618,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3663,16 +3635,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3680,16 +3652,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -3697,16 +3669,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3714,16 +3686,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3731,16 +3703,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -3748,16 +3720,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -3765,16 +3737,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -3782,16 +3754,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -3799,16 +3771,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3816,16 +3788,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3833,16 +3805,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -3850,16 +3822,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -3867,16 +3839,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3884,16 +3856,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3901,16 +3873,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3918,16 +3890,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -3935,16 +3907,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E83">
         <v>4</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">insuredata!$A$3:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">signindata!$A$3:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>版本号</t>
   </si>
@@ -185,37 +185,37 @@
     <t>prize</t>
   </si>
   <si>
+    <t>参保</t>
+  </si>
+  <si>
+    <t>购买一个保险产品</t>
+  </si>
+  <si>
+    <t>[{t:0,v:5000},{t:1,v:0}]</t>
+  </si>
+  <si>
+    <t>投资理财任务</t>
+  </si>
+  <si>
+    <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
+  </si>
+  <si>
     <t>股票购买</t>
   </si>
   <si>
-    <t>去购买任何一支股票，完成任务有现金奖励</t>
-  </si>
-  <si>
-    <t>[{t:1,v:100},{t:2,v:300}]</t>
-  </si>
-  <si>
-    <t>参保</t>
-  </si>
-  <si>
-    <t>购买一个保险产品</t>
-  </si>
-  <si>
-    <t>投资理财任务</t>
-  </si>
-  <si>
-    <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
+    <t>购买任何一支股票</t>
+  </si>
+  <si>
+    <t>股票抛售</t>
+  </si>
+  <si>
+    <t>抛售任何一支股票</t>
   </si>
   <si>
     <t>存款到银行</t>
   </si>
   <si>
-    <t>去银行定期存款</t>
-  </si>
-  <si>
-    <t>z抛售股票</t>
-  </si>
-  <si>
-    <t>抛售一支股票</t>
+    <t>进行一次定期存款</t>
   </si>
   <si>
     <t>类型(0:保险，1：理财))</t>
@@ -689,9 +689,6 @@
     <t>彩票中一等奖</t>
   </si>
   <si>
-    <t>[{t:0,v:5000},{t:1,v:0}]</t>
-  </si>
-  <si>
     <t>彩票中二等奖</t>
   </si>
   <si>
@@ -807,8 +804,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -980,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,6 +1013,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1662,13 +1662,13 @@
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1679,13 +1679,13 @@
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>80</v>
       </c>
       <c r="E5">
@@ -1696,13 +1696,13 @@
       <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>120</v>
       </c>
       <c r="E6">
@@ -1713,13 +1713,13 @@
       <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>190</v>
       </c>
       <c r="E7">
@@ -1730,13 +1730,13 @@
       <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>310</v>
       </c>
       <c r="E8">
@@ -1747,13 +1747,13 @@
       <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>500</v>
       </c>
       <c r="E9">
@@ -1764,13 +1764,13 @@
       <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <v>780</v>
       </c>
       <c r="E10">
@@ -1781,13 +1781,13 @@
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>1170</v>
       </c>
       <c r="E11">
@@ -1798,13 +1798,13 @@
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>1690</v>
       </c>
       <c r="E12">
@@ -1815,13 +1815,13 @@
       <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="17">
         <v>2360</v>
       </c>
       <c r="E13">
@@ -2065,14 +2065,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2081,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2094,7 +2095,7 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" t="s">
@@ -2111,15 +2112,15 @@
       <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:5">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -2129,60 +2130,60 @@
         <v>54</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2193,13 +2194,13 @@
       <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2501,8 +2502,8 @@
   <sheetPr/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3440,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3451,13 +3452,13 @@
         <v>175</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3468,13 +3469,13 @@
         <v>175</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3485,13 +3486,13 @@
         <v>175</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3502,13 +3503,13 @@
         <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3519,13 +3520,13 @@
         <v>175</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3536,13 +3537,13 @@
         <v>175</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3553,13 +3554,13 @@
         <v>175</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -3570,13 +3571,13 @@
         <v>175</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3587,13 +3588,13 @@
         <v>175</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3604,13 +3605,13 @@
         <v>175</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -3621,13 +3622,13 @@
         <v>175</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3638,13 +3639,13 @@
         <v>175</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3655,13 +3656,13 @@
         <v>175</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -3672,13 +3673,13 @@
         <v>175</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3689,13 +3690,13 @@
         <v>175</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3706,13 +3707,13 @@
         <v>175</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -3723,13 +3724,13 @@
         <v>175</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -3740,7 +3741,7 @@
         <v>175</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -3757,13 +3758,13 @@
         <v>175</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -3774,13 +3775,13 @@
         <v>175</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3791,13 +3792,13 @@
         <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3808,13 +3809,13 @@
         <v>175</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -3825,13 +3826,13 @@
         <v>175</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -3842,13 +3843,13 @@
         <v>175</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3859,13 +3860,13 @@
         <v>175</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3876,13 +3877,13 @@
         <v>175</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3893,13 +3894,13 @@
         <v>175</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -3910,7 +3911,7 @@
         <v>175</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="4"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,18 @@
     <sheet name="questdata" sheetId="5" r:id="rId5"/>
     <sheet name="insuredata" sheetId="6" r:id="rId6"/>
     <sheet name="eventdata" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">insuredata!$A$3:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">signindata!$A$3:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>版本号</t>
   </si>
@@ -194,7 +195,7 @@
     <t>[{t:0,v:5000},{t:1,v:0}]</t>
   </si>
   <si>
-    <t>投资理财任务</t>
+    <t>投资理财</t>
   </si>
   <si>
     <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
@@ -796,6 +797,283 @@
   <si>
     <t>年末花市卖花，获得利润</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票价格曲线图上出现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这个问题依然存在</t>
+    </r>
+  </si>
+  <si>
+    <t>已修正</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>貌似我没法完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参保一家保险公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‍</t>
+    </r>
+  </si>
+  <si>
+    <t>客户修改描述</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有购买意外险的情况下，触发了随机事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功避开交通意外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这个不合理，应该是有金钱损失的</t>
+    </r>
+  </si>
+  <si>
+    <t>等新颁布</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股可以一直减，减到负数，这个需要修复</t>
+    </r>
+  </si>
+  <si>
+    <t>修正表现</t>
+  </si>
+  <si>
+    <t>按钮文字改成"买入",卖出</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票价格变动的时候，所有股票的价格，总收益都变成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="0"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <t>刷新有问题</t>
+  </si>
+  <si>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>排行榜逻辑修改</t>
+  </si>
+  <si>
+    <t>周和月都是最新取当前</t>
+  </si>
+  <si>
+    <t>任务界面文字颜色修改</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>除股票价格外其他金额使用整数</t>
+  </si>
+  <si>
+    <t>修复刚注册用户日签到引起的排名变化;</t>
+  </si>
+  <si>
+    <t>注册和登陆放到一起</t>
+  </si>
 </sst>
 </file>
 
@@ -803,13 +1081,31 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="0"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="0"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -949,7 +1245,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,22 +1260,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -987,25 +1292,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="8" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="8" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="7" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1017,19 +1322,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,7 +1683,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1391,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1424,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1443,7 +1745,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1514,7 +1816,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C5">
@@ -1531,7 +1833,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -1548,7 +1850,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7">
@@ -1565,7 +1867,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8">
@@ -1582,7 +1884,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9">
@@ -1608,7 +1910,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1659,16 +1961,16 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="17">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1676,16 +1978,16 @@
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="19">
         <v>80</v>
       </c>
       <c r="E5">
@@ -1693,16 +1995,16 @@
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <v>120</v>
       </c>
       <c r="E6">
@@ -1710,16 +2012,16 @@
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="19">
         <v>190</v>
       </c>
       <c r="E7">
@@ -1727,16 +2029,16 @@
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="19">
         <v>310</v>
       </c>
       <c r="E8">
@@ -1744,16 +2046,16 @@
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
-      <c r="A9" s="8">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="19">
         <v>500</v>
       </c>
       <c r="E9">
@@ -1761,16 +2063,16 @@
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="19">
         <v>780</v>
       </c>
       <c r="E10">
@@ -1778,16 +2080,16 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="19">
         <v>1170</v>
       </c>
       <c r="E11">
@@ -1795,16 +2097,16 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="19">
         <v>1690</v>
       </c>
       <c r="E12">
@@ -1812,16 +2114,16 @@
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="8">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="19">
         <v>2360</v>
       </c>
       <c r="E13">
@@ -1873,13 +2175,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
@@ -2064,8 +2366,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2085,7 +2387,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:5">
+    <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2095,7 +2397,7 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E2" t="s">
@@ -2112,7 +2414,7 @@
       <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -2126,13 +2428,13 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2149,7 +2451,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2160,13 +2462,13 @@
       <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2174,16 +2476,16 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2194,13 +2496,13 @@
       <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2217,7 +2519,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2284,7 +2586,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -2302,176 +2604,176 @@
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>1500</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>100</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>6000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>1000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>1800</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>140</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>400</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>12</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>700</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>24</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>400</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>24</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>450</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>24</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C12">
@@ -2486,7 +2788,7 @@
       <c r="F12">
         <v>24</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2502,8 +2804,8 @@
   <sheetPr/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2520,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="C1" t="s">
         <v>85</v>
       </c>
       <c r="D1">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2539,24 +2841,24 @@
       <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E3" t="s">
@@ -2564,16 +2866,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E4">
@@ -2581,16 +2883,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E5">
@@ -2598,16 +2900,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E6">
@@ -2615,16 +2917,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E7">
@@ -2632,16 +2934,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E8">
@@ -2649,16 +2951,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E9">
@@ -2666,16 +2968,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E10">
@@ -2683,16 +2985,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E11">
@@ -2700,16 +3002,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E12">
@@ -2717,16 +3019,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E13">
@@ -2734,16 +3036,16 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E14">
@@ -2751,16 +3053,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E15">
@@ -2768,16 +3070,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E16">
@@ -2785,16 +3087,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E17">
@@ -2802,16 +3104,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E18">
@@ -2819,16 +3121,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E19">
@@ -2836,16 +3138,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E20">
@@ -2853,16 +3155,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E21">
@@ -2870,16 +3172,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E22">
@@ -2887,16 +3189,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E23">
@@ -2904,16 +3206,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E24">
@@ -2921,16 +3223,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E25">
@@ -2938,16 +3240,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E26">
@@ -2955,16 +3257,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E27">
@@ -2972,16 +3274,16 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E28">
@@ -2989,16 +3291,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E29">
@@ -3006,16 +3308,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E30">
@@ -3023,16 +3325,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E31">
@@ -3040,16 +3342,16 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E32">
@@ -3057,16 +3359,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E33">
@@ -3074,16 +3376,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E34">
@@ -3091,16 +3393,16 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E35">
@@ -3108,16 +3410,16 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E36">
@@ -3125,16 +3427,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E37">
@@ -3142,16 +3444,16 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E38">
@@ -3159,16 +3461,16 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E39">
@@ -3176,16 +3478,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E40">
@@ -3193,16 +3495,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E41">
@@ -3210,16 +3512,16 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E42">
@@ -3227,16 +3529,16 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E43">
@@ -3244,16 +3546,16 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E44">
@@ -3261,16 +3563,16 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E45">
@@ -3278,16 +3580,16 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E46">
@@ -3295,16 +3597,16 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E47">
@@ -3312,16 +3614,16 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E48">
@@ -3329,16 +3631,16 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E49">
@@ -3346,16 +3648,16 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E50">
@@ -3363,16 +3665,16 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E51">
@@ -3380,16 +3682,16 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E52">
@@ -3397,16 +3699,16 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E53">
@@ -3414,16 +3716,16 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E54">
@@ -3431,16 +3733,16 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E55">
@@ -3448,16 +3750,16 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E56">
@@ -3465,16 +3767,16 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E57">
@@ -3482,16 +3784,16 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E58">
@@ -3499,16 +3801,16 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E59">
@@ -3516,16 +3818,16 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E60">
@@ -3533,16 +3835,16 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E61">
@@ -3550,16 +3852,16 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
       <c r="E62">
@@ -3567,16 +3869,16 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E63">
@@ -3584,16 +3886,16 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>190</v>
       </c>
       <c r="E64">
@@ -3601,16 +3903,16 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E65">
@@ -3618,16 +3920,16 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E66">
@@ -3635,16 +3937,16 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E67">
@@ -3652,16 +3954,16 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E68">
@@ -3669,16 +3971,16 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E69">
@@ -3686,16 +3988,16 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E70">
@@ -3703,16 +4005,16 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E71">
@@ -3720,16 +4022,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E72">
@@ -3737,16 +4039,16 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E73">
@@ -3754,16 +4056,16 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E74">
@@ -3771,16 +4073,16 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E75">
@@ -3788,16 +4090,16 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E76">
@@ -3805,16 +4107,16 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E77">
@@ -3822,16 +4124,16 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E78">
@@ -3839,16 +4141,16 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E79">
@@ -3856,16 +4158,16 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E80">
@@ -3873,16 +4175,16 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E81">
@@ -3890,16 +4192,16 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E82">
@@ -3907,20 +4209,116 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="1">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E83">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="54.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -1060,10 +1060,10 @@
     <t>周和月都是最新取当前</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>任务界面文字颜色修改</t>
-  </si>
-  <si>
-    <t>完成</t>
   </si>
   <si>
     <t>除股票价格外其他金额使用整数</t>
@@ -4238,7 +4238,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4292,25 +4292,31 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>228</v>
       </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
         <v>229</v>
       </c>
-      <c r="C13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="7"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="questdata" sheetId="5" r:id="rId5"/>
     <sheet name="insuredata" sheetId="6" r:id="rId6"/>
     <sheet name="eventdata" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">insuredata!$A$3:$G$3</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>版本号</t>
   </si>
@@ -797,315 +796,20 @@
   <si>
     <t>年末花市卖花，获得利润</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股票价格曲线图上出现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>undefined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这个问题依然存在</t>
-    </r>
-  </si>
-  <si>
-    <t>已修正</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>貌似我没法完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参保一家保险公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这个任务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‍</t>
-    </r>
-  </si>
-  <si>
-    <t>客户修改描述</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有购买意外险的情况下，触发了随机事件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成功避开交通意外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这个不合理，应该是有金钱损失的</t>
-    </r>
-  </si>
-  <si>
-    <t>等新颁布</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股可以一直减，减到负数，这个需要修复</t>
-    </r>
-  </si>
-  <si>
-    <t>修正表现</t>
-  </si>
-  <si>
-    <t>按钮文字改成"买入",卖出</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股票价格变动的时候，所有股票的价格，总收益都变成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="0"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>了</t>
-    </r>
-  </si>
-  <si>
-    <t>刷新有问题</t>
-  </si>
-  <si>
-    <t>已修复</t>
-  </si>
-  <si>
-    <t>排行榜逻辑修改</t>
-  </si>
-  <si>
-    <t>周和月都是最新取当前</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>任务界面文字颜色修改</t>
-  </si>
-  <si>
-    <t>除股票价格外其他金额使用整数</t>
-  </si>
-  <si>
-    <t>修复刚注册用户日签到引起的排名变化;</t>
-  </si>
-  <si>
-    <t>注册和登陆放到一起</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="0"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="0"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1245,7 +949,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,31 +964,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1292,25 +987,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="8" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="8" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="7" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1322,16 +1017,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1816,7 +1511,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5">
@@ -1833,7 +1528,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -1850,7 +1545,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7">
@@ -1867,7 +1562,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
@@ -1884,7 +1579,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9">
@@ -1961,16 +1656,16 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1978,16 +1673,16 @@
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>80</v>
       </c>
       <c r="E5">
@@ -1995,16 +1690,16 @@
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <v>120</v>
       </c>
       <c r="E6">
@@ -2012,16 +1707,16 @@
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>190</v>
       </c>
       <c r="E7">
@@ -2029,16 +1724,16 @@
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="16">
         <v>310</v>
       </c>
       <c r="E8">
@@ -2046,16 +1741,16 @@
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <v>500</v>
       </c>
       <c r="E9">
@@ -2063,16 +1758,16 @@
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>780</v>
       </c>
       <c r="E10">
@@ -2080,16 +1775,16 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <v>1170</v>
       </c>
       <c r="E11">
@@ -2097,16 +1792,16 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>1690</v>
       </c>
       <c r="E12">
@@ -2114,16 +1809,16 @@
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>2360</v>
       </c>
       <c r="E13">
@@ -2175,13 +1870,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
@@ -2397,7 +2092,7 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" t="s">
@@ -2414,7 +2109,7 @@
       <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -2428,13 +2123,13 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2451,7 +2146,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2462,13 +2157,13 @@
       <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2476,16 +2171,16 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2496,13 +2191,13 @@
       <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2586,7 +2281,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -2604,176 +2299,176 @@
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>1500</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>6000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>1000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>1800</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>140</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>24</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>400</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>12</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>700</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>24</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>400</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>450</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>24</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C12">
@@ -2788,7 +2483,7 @@
       <c r="F12">
         <v>24</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2804,7 +2499,7 @@
   <sheetPr/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2841,24 +2536,24 @@
       <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E3" t="s">
@@ -2866,16 +2561,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E4">
@@ -2883,16 +2578,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E5">
@@ -2900,16 +2595,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E6">
@@ -2917,16 +2612,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E7">
@@ -2934,16 +2629,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E8">
@@ -2951,16 +2646,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E9">
@@ -2968,16 +2663,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E10">
@@ -2985,16 +2680,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E11">
@@ -3002,16 +2697,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E12">
@@ -3019,16 +2714,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E13">
@@ -3036,16 +2731,16 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E14">
@@ -3053,16 +2748,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E15">
@@ -3070,16 +2765,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E16">
@@ -3087,16 +2782,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E17">
@@ -3104,16 +2799,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E18">
@@ -3121,16 +2816,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E19">
@@ -3138,16 +2833,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E20">
@@ -3155,16 +2850,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E21">
@@ -3172,16 +2867,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E22">
@@ -3189,16 +2884,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E23">
@@ -3206,16 +2901,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E24">
@@ -3223,16 +2918,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E25">
@@ -3240,16 +2935,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E26">
@@ -3257,16 +2952,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E27">
@@ -3274,16 +2969,16 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E28">
@@ -3291,16 +2986,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E29">
@@ -3308,16 +3003,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E30">
@@ -3325,16 +3020,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E31">
@@ -3342,16 +3037,16 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E32">
@@ -3359,16 +3054,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E33">
@@ -3376,16 +3071,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E34">
@@ -3393,16 +3088,16 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E35">
@@ -3410,16 +3105,16 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E36">
@@ -3427,16 +3122,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E37">
@@ -3444,16 +3139,16 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E38">
@@ -3461,16 +3156,16 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E39">
@@ -3478,16 +3173,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E40">
@@ -3495,16 +3190,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E41">
@@ -3512,16 +3207,16 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E42">
@@ -3529,16 +3224,16 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E43">
@@ -3546,16 +3241,16 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E44">
@@ -3563,16 +3258,16 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E45">
@@ -3580,16 +3275,16 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E46">
@@ -3597,16 +3292,16 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="4">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E47">
@@ -3614,16 +3309,16 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E48">
@@ -3631,16 +3326,16 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E49">
@@ -3648,16 +3343,16 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E50">
@@ -3665,16 +3360,16 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E51">
@@ -3682,16 +3377,16 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="4">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E52">
@@ -3699,16 +3394,16 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="4">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E53">
@@ -3716,16 +3411,16 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E54">
@@ -3733,16 +3428,16 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="4">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E55">
@@ -3750,16 +3445,16 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="4">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E56">
@@ -3767,16 +3462,16 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E57">
@@ -3784,16 +3479,16 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="4">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E58">
@@ -3801,16 +3496,16 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="4">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E59">
@@ -3818,16 +3513,16 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="4">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E60">
@@ -3835,16 +3530,16 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="4">
-        <v>0</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E61">
@@ -3852,16 +3547,16 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="4">
-        <v>0</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E62">
@@ -3869,16 +3564,16 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="4">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E63">
@@ -3886,16 +3581,16 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="4">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E64">
@@ -3903,16 +3598,16 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C65" s="4">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E65">
@@ -3920,16 +3615,16 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="4">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E66">
@@ -3937,16 +3632,16 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="4">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E67">
@@ -3954,16 +3649,16 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E68">
@@ -3971,16 +3666,16 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E69">
@@ -3988,16 +3683,16 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="4">
-        <v>0</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E70">
@@ -4005,16 +3700,16 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="4">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E71">
@@ -4022,16 +3717,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="4">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E72">
@@ -4039,16 +3734,16 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E73">
@@ -4056,16 +3751,16 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C74" s="4">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E74">
@@ -4073,16 +3768,16 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C75" s="4">
-        <v>0</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E75">
@@ -4090,16 +3785,16 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="4">
-        <v>0</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E76">
@@ -4107,16 +3802,16 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="4">
-        <v>0</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E77">
@@ -4124,16 +3819,16 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="4">
-        <v>0</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E78">
@@ -4141,16 +3836,16 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C79" s="4">
-        <v>0</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E79">
@@ -4158,16 +3853,16 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C80" s="4">
-        <v>0</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E80">
@@ -4175,16 +3870,16 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="4">
-        <v>0</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>212</v>
       </c>
       <c r="E81">
@@ -4192,16 +3887,16 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="4">
-        <v>0</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E82">
@@ -4209,122 +3904,20 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="4">
-        <v>0</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E83">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="54.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="6"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>版本号</t>
   </si>
@@ -191,7 +191,7 @@
     <t>购买一个保险产品</t>
   </si>
   <si>
-    <t>[{t:0,v:5000},{t:1,v:0}]</t>
+    <t>[{t:0,v:5000}]</t>
   </si>
   <si>
     <t>投资理财</t>
@@ -434,7 +434,7 @@
     <t>出门遭遇高空坠物</t>
   </si>
   <si>
-    <t>[{t:0,v:-2000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-2000}]</t>
   </si>
   <si>
     <t>意外扭伤</t>
@@ -443,7 +443,7 @@
     <t>乘坐公交车发生意外，扭伤脚</t>
   </si>
   <si>
-    <t>[{t:0,v:-1000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-1000}]</t>
   </si>
   <si>
     <t>乘坐的士发生意外，头部撞伤</t>
@@ -455,7 +455,7 @@
     <t>在家烧烤，意外烫伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-800}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-800}]</t>
   </si>
   <si>
     <t>意外骨折</t>
@@ -464,25 +464,25 @@
     <t>打篮球意外受伤，手臂骨折</t>
   </si>
   <si>
-    <t>[{t:0,v:-5000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-5000}]</t>
   </si>
   <si>
     <t>海岸线穿越摔伤，脚踝扭伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-1500}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-1500}]</t>
   </si>
   <si>
     <t>驾车出行，车辆相撞，头部受伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-6000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-6000}]</t>
   </si>
   <si>
     <t>户外烧烤，意外烫伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-200}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-200}]</t>
   </si>
   <si>
     <t>度假受伤</t>
@@ -491,7 +491,7 @@
     <t>乡下度假，被蜜蜂蛰伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-500}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-500}]</t>
   </si>
   <si>
     <t>被宠物咬伤</t>
@@ -509,7 +509,7 @@
     <t>店铺发生火灾</t>
   </si>
   <si>
-    <t>[{t:0,v:-10000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-10000}]</t>
   </si>
   <si>
     <t>家里爆水管</t>
@@ -518,7 +518,7 @@
     <t>家里被盗，丢失笔记本电脑一台</t>
   </si>
   <si>
-    <t>[{t:0,v:-3000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-3000}]</t>
   </si>
   <si>
     <t>私家车被盗零件</t>
@@ -530,25 +530,25 @@
     <t>支付宝密码被盗</t>
   </si>
   <si>
-    <t>[{t:0,v:-4000},{t:1,v:0}]</t>
+    <t>[{t:0,v:-4000]</t>
   </si>
   <si>
     <t>信用卡被盗刷</t>
   </si>
   <si>
-    <t>[{t:0,v:-5000},{t:1,v:0}]</t>
+    <t>[{t:0,v:-5000]</t>
   </si>
   <si>
     <t>发快递丢失，损失</t>
   </si>
   <si>
-    <t>[{t:0,v:-500},{t:1,v:0}]</t>
+    <t>[{t:0,v:-500]</t>
   </si>
   <si>
     <t>电脑被破解，银行密码泄露</t>
   </si>
   <si>
-    <t>[{t:0,v:-3000},{t:1,v:0}]</t>
+    <t>[{t:0,v:-3000]</t>
   </si>
   <si>
     <t>旅游意外损失</t>
@@ -563,7 +563,7 @@
     <t>短途旅游摔伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-2000},{t:1,v:0}]</t>
+    <t>[{t:0,v:-2000]</t>
   </si>
   <si>
     <t>旅游意外不适</t>
@@ -572,7 +572,7 @@
     <t>西藏旅游高原反应</t>
   </si>
   <si>
-    <t>[{t:0,v:-1500},{t:1,v:0}]</t>
+    <t>[{t:0,v:-1500]</t>
   </si>
   <si>
     <t>去内蒙古旅游，从马上摔下</t>
@@ -581,7 +581,7 @@
     <t>出境旅游跳伞扭伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-1800},{t:1,v:0}]</t>
+    <t>[{t:0,v:-1800]</t>
   </si>
   <si>
     <t>日本旅游滑雪扭伤</t>
@@ -617,7 +617,7 @@
     <t>食物中毒</t>
   </si>
   <si>
-    <t>[{t:0,v:-1000},{t:1,v:0}]</t>
+    <t>[{t:0,v:-1000]</t>
   </si>
   <si>
     <t>皮肤病</t>
@@ -626,7 +626,7 @@
     <t>急性肝炎</t>
   </si>
   <si>
-    <t>[{t:0,v:-2500},{t:1,v:0}]</t>
+    <t>[{t:0,v:-2500]</t>
   </si>
   <si>
     <t>登革热</t>
@@ -647,13 +647,13 @@
     <t>发动机故障，损失</t>
   </si>
   <si>
-    <t>[{t:0,v:-8000},{t:1,v:0}]</t>
+    <t>[{t:0,v:-8000]</t>
   </si>
   <si>
     <t>停车场发生火灾，车辆受损</t>
   </si>
   <si>
-    <t>[{t:0,v:-9000},{t:1,v:0}]</t>
+    <t>[{t:0,v:-9000]</t>
   </si>
   <si>
     <t>自家宝马放在停车场被划</t>
@@ -683,16 +683,19 @@
     <t>彩票中三等奖</t>
   </si>
   <si>
-    <t>[{t:0,v:3000},{t:1,v:0}]</t>
+    <t>[{t:0,v:3000]</t>
   </si>
   <si>
     <t>彩票中一等奖</t>
   </si>
   <si>
+    <t>[{t:0,v:5000]</t>
+  </si>
+  <si>
     <t>彩票中二等奖</t>
   </si>
   <si>
-    <t>[{t:0,v:10000},{t:1,v:0}]</t>
+    <t>[{t:0,v:10000]</t>
   </si>
   <si>
     <t>获得遗产</t>
@@ -701,19 +704,19 @@
     <t>参与歌唱比赛获得奖金</t>
   </si>
   <si>
-    <t>[{t:0,v:2000},{t:1,v:0}]</t>
+    <t>[{t:0,v:2000]</t>
   </si>
   <si>
     <t>平安答谢客户发放月饼卡</t>
   </si>
   <si>
-    <t>[{t:0,v:1000},{t:1,v:0}]</t>
+    <t>[{t:0,v:1000]</t>
   </si>
   <si>
     <t>获得季度奖金</t>
   </si>
   <si>
-    <t>[{t:0,v:8000},{t:1,v:0}]</t>
+    <t>[{t:0,v:8000]</t>
   </si>
   <si>
     <t>获得年终绩效奖金</t>
@@ -722,13 +725,13 @@
     <t>与同事打扑克赢钱</t>
   </si>
   <si>
-    <t>[{t:0,v:500},{t:1,v:0}]</t>
+    <t>[{t:0,v:500]</t>
   </si>
   <si>
     <t>与同事打麻将赢钱</t>
   </si>
   <si>
-    <t>[{t:0,v:1500},{t:1,v:0}]</t>
+    <t>[{t:0,v:1500]</t>
   </si>
   <si>
     <t>与同事打赌赢钱</t>
@@ -737,7 +740,7 @@
     <t>吃海鲜吃出珍珠</t>
   </si>
   <si>
-    <t>[{t:0,v:200},{t:1,v:0}]</t>
+    <t>[{t:0,v:200]</t>
   </si>
   <si>
     <t>种地挖出文物</t>
@@ -788,7 +791,7 @@
     <t>收藏奇石，获得利润</t>
   </si>
   <si>
-    <t>[{t:0,v:6000},{t:1,v:0}]</t>
+    <t>[{t:0,v:6000]</t>
   </si>
   <si>
     <t>情人节卖花，获得利润</t>
@@ -802,10 +805,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -2061,8 +2064,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2079,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:5">
@@ -2499,8 +2502,8 @@
   <sheetPr/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2517,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="C1" t="s">
         <v>85</v>
@@ -3438,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3449,13 +3452,13 @@
         <v>175</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3466,13 +3469,13 @@
         <v>175</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3483,13 +3486,13 @@
         <v>175</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3500,13 +3503,13 @@
         <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3517,13 +3520,13 @@
         <v>175</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3534,13 +3537,13 @@
         <v>175</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3551,13 +3554,13 @@
         <v>175</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -3568,13 +3571,13 @@
         <v>175</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3585,13 +3588,13 @@
         <v>175</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3602,13 +3605,13 @@
         <v>175</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -3619,13 +3622,13 @@
         <v>175</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3636,13 +3639,13 @@
         <v>175</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3653,13 +3656,13 @@
         <v>175</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -3670,13 +3673,13 @@
         <v>175</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3687,13 +3690,13 @@
         <v>175</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3704,13 +3707,13 @@
         <v>175</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -3721,13 +3724,13 @@
         <v>175</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -3738,7 +3741,7 @@
         <v>175</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -3755,13 +3758,13 @@
         <v>175</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -3772,13 +3775,13 @@
         <v>175</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3789,13 +3792,13 @@
         <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3806,13 +3809,13 @@
         <v>175</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -3823,13 +3826,13 @@
         <v>175</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -3840,13 +3843,13 @@
         <v>175</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3857,13 +3860,13 @@
         <v>175</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3874,13 +3877,13 @@
         <v>175</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3891,13 +3894,13 @@
         <v>175</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -3908,7 +3911,7 @@
         <v>175</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="4"/>
+    <workbookView windowWidth="15920" windowHeight="9080" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
   <si>
     <t>版本号</t>
   </si>
@@ -530,27 +530,18 @@
     <t>支付宝密码被盗</t>
   </si>
   <si>
-    <t>[{t:0,v:-4000]</t>
+    <t>[{t:0,v:-4000}]</t>
   </si>
   <si>
     <t>信用卡被盗刷</t>
   </si>
   <si>
-    <t>[{t:0,v:-5000]</t>
-  </si>
-  <si>
     <t>发快递丢失，损失</t>
   </si>
   <si>
-    <t>[{t:0,v:-500]</t>
-  </si>
-  <si>
     <t>电脑被破解，银行密码泄露</t>
   </si>
   <si>
-    <t>[{t:0,v:-3000]</t>
-  </si>
-  <si>
     <t>旅游意外损失</t>
   </si>
   <si>
@@ -563,25 +554,19 @@
     <t>短途旅游摔伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-2000]</t>
-  </si>
-  <si>
     <t>旅游意外不适</t>
   </si>
   <si>
     <t>西藏旅游高原反应</t>
   </si>
   <si>
-    <t>[{t:0,v:-1500]</t>
-  </si>
-  <si>
     <t>去内蒙古旅游，从马上摔下</t>
   </si>
   <si>
     <t>出境旅游跳伞扭伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-1800]</t>
+    <t>[{t:0,v:-1800}]</t>
   </si>
   <si>
     <t>日本旅游滑雪扭伤</t>
@@ -617,16 +602,13 @@
     <t>食物中毒</t>
   </si>
   <si>
-    <t>[{t:0,v:-1000]</t>
-  </si>
-  <si>
     <t>皮肤病</t>
   </si>
   <si>
     <t>急性肝炎</t>
   </si>
   <si>
-    <t>[{t:0,v:-2500]</t>
+    <t>[{t:0,v:-2500}]</t>
   </si>
   <si>
     <t>登革热</t>
@@ -647,13 +629,13 @@
     <t>发动机故障，损失</t>
   </si>
   <si>
-    <t>[{t:0,v:-8000]</t>
+    <t>[{t:0,v:-8000}]</t>
   </si>
   <si>
     <t>停车场发生火灾，车辆受损</t>
   </si>
   <si>
-    <t>[{t:0,v:-9000]</t>
+    <t>[{t:0,v:-9000}]</t>
   </si>
   <si>
     <t>自家宝马放在停车场被划</t>
@@ -683,19 +665,16 @@
     <t>彩票中三等奖</t>
   </si>
   <si>
-    <t>[{t:0,v:3000]</t>
+    <t>[{t:0,v:3000}]</t>
   </si>
   <si>
     <t>彩票中一等奖</t>
   </si>
   <si>
-    <t>[{t:0,v:5000]</t>
-  </si>
-  <si>
     <t>彩票中二等奖</t>
   </si>
   <si>
-    <t>[{t:0,v:10000]</t>
+    <t>[{t:0,v:10000}]</t>
   </si>
   <si>
     <t>获得遗产</t>
@@ -704,19 +683,19 @@
     <t>参与歌唱比赛获得奖金</t>
   </si>
   <si>
-    <t>[{t:0,v:2000]</t>
+    <t>[{t:0,v:2000}]</t>
   </si>
   <si>
     <t>平安答谢客户发放月饼卡</t>
   </si>
   <si>
-    <t>[{t:0,v:1000]</t>
+    <t>[{t:0,v:1000}]</t>
   </si>
   <si>
     <t>获得季度奖金</t>
   </si>
   <si>
-    <t>[{t:0,v:8000]</t>
+    <t>[{t:0,v:8000}]</t>
   </si>
   <si>
     <t>获得年终绩效奖金</t>
@@ -725,13 +704,13 @@
     <t>与同事打扑克赢钱</t>
   </si>
   <si>
-    <t>[{t:0,v:500]</t>
+    <t>[{t:0,v:500}]</t>
   </si>
   <si>
     <t>与同事打麻将赢钱</t>
   </si>
   <si>
-    <t>[{t:0,v:1500]</t>
+    <t>[{t:0,v:1500}]</t>
   </si>
   <si>
     <t>与同事打赌赢钱</t>
@@ -740,7 +719,7 @@
     <t>吃海鲜吃出珍珠</t>
   </si>
   <si>
-    <t>[{t:0,v:200]</t>
+    <t>[{t:0,v:200}]</t>
   </si>
   <si>
     <t>种地挖出文物</t>
@@ -791,7 +770,7 @@
     <t>收藏奇石，获得利润</t>
   </si>
   <si>
-    <t>[{t:0,v:6000]</t>
+    <t>[{t:0,v:6000}]</t>
   </si>
   <si>
     <t>情人节卖花，获得利润</t>
@@ -805,10 +784,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1384,7 +1363,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1446,7 +1425,7 @@
       <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
@@ -1611,7 +1590,7 @@
       <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
@@ -1641,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1844,7 +1823,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
@@ -2064,11 +2043,11 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -2085,7 +2064,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:5">
+    <row r="2" ht="30" spans="1:5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2220,7 +2199,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -2502,11 +2481,11 @@
   <sheetPr/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
@@ -2520,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="C1" t="s">
         <v>85</v>
@@ -2863,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -2874,13 +2853,13 @@
         <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2891,13 +2870,13 @@
         <v>116</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2905,16 +2884,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -2922,16 +2901,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -2939,16 +2918,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -2956,16 +2935,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -2973,16 +2952,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -2990,16 +2969,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -3007,16 +2986,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -3024,16 +3003,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -3041,16 +3020,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -3058,16 +3037,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -3075,16 +3054,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -3092,16 +3071,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -3109,16 +3088,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -3126,16 +3105,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -3143,16 +3122,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -3160,16 +3139,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -3177,16 +3156,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -3194,16 +3173,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -3211,16 +3190,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -3228,16 +3207,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E43">
         <v>8</v>
@@ -3245,16 +3224,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <v>9</v>
@@ -3262,16 +3241,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E45">
         <v>9</v>
@@ -3279,16 +3258,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E46">
         <v>9</v>
@@ -3296,16 +3275,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E47">
         <v>9</v>
@@ -3313,16 +3292,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E48">
         <v>9</v>
@@ -3330,16 +3309,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E49">
         <v>9</v>
@@ -3347,16 +3326,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -3364,16 +3343,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E51">
         <v>9</v>
@@ -3381,16 +3360,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E52">
         <v>9</v>
@@ -3398,16 +3377,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>9</v>
@@ -3415,16 +3394,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3432,16 +3411,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3449,16 +3428,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3466,16 +3445,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3483,16 +3462,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3500,16 +3479,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3517,16 +3496,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3534,16 +3513,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3551,16 +3530,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -3568,16 +3547,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3585,16 +3564,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3602,16 +3581,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -3619,16 +3598,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3636,16 +3615,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3653,16 +3632,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -3670,16 +3649,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3687,16 +3666,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3704,16 +3683,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -3721,16 +3700,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -3738,16 +3717,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -3755,16 +3734,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -3772,16 +3751,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3789,16 +3768,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3806,16 +3785,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -3823,16 +3802,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -3840,16 +3819,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3857,16 +3836,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3874,16 +3853,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3891,16 +3870,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -3908,16 +3887,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E83">
         <v>4</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15920" windowHeight="9080" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="15920" windowHeight="9080" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -785,9 +785,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -2043,8 +2043,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="2" ht="30" spans="1:5">
@@ -2109,7 +2109,7 @@
         <v>54</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>55</v>
@@ -2481,8 +2481,8 @@
   <sheetPr/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15920" windowHeight="9080" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19104" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -784,9 +784,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
@@ -1359,18 +1359,18 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>20000</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1425,7 @@
       <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
@@ -1590,7 +1590,7 @@
       <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
@@ -1620,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:5">
+    <row r="3" ht="16.35" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:5">
+    <row r="4" ht="16.35" spans="1:5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:5">
+    <row r="5" ht="16.35" spans="1:5">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:5">
+    <row r="6" ht="16.35" spans="1:5">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:5">
+    <row r="7" ht="16.35" spans="1:5">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" ht="16.35" spans="1:5">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" ht="16.35" spans="1:5">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:5">
+    <row r="10" ht="16.35" spans="1:5">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:5">
+    <row r="11" ht="16.35" spans="1:5">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:5">
+    <row r="12" ht="16.35" spans="1:5">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:5">
+    <row r="13" ht="16.35" spans="1:5">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1823,7 +1823,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
@@ -2043,11 +2043,11 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -2064,7 +2064,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:5">
+    <row r="2" ht="31.2" spans="1:5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2199,7 +2199,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -2485,7 +2485,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19104" windowHeight="11160"/>
+    <workbookView windowWidth="20370" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -1360,17 +1360,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1425,7 +1425,7 @@
       <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
@@ -1590,7 +1590,7 @@
       <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
@@ -1620,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="16.35" spans="1:5">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="16.35" spans="1:5">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="16.35" spans="1:5">
+    <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="16.35" spans="1:5">
+    <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="16.35" spans="1:5">
+    <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="16.35" spans="1:5">
+    <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="16.35" spans="1:5">
+    <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="16.35" spans="1:5">
+    <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="16.35" spans="1:5">
+    <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="16.35" spans="1:5">
+    <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="16.35" spans="1:5">
+    <row r="13" ht="15.75" spans="1:5">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1823,7 +1823,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
@@ -2047,7 +2047,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -2064,7 +2064,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="2" ht="31.2" spans="1:5">
+    <row r="2" ht="28.5" spans="1:5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2199,7 +2199,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -2485,7 +2485,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985"/>
+    <workbookView windowWidth="20370" windowHeight="8985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -784,10 +784,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1359,7 +1359,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1421,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1486,7 +1486,7 @@
         <v>0.35</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" activeTab="1"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">insuredata!$A$3:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">signindata!$A$3:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -784,9 +784,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="2" spans="1:7">

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9827" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
   <si>
     <t>版本号</t>
   </si>
@@ -176,12 +176,33 @@
     <t>任务名</t>
   </si>
   <si>
-    <t>类型:0:保险,1:理财,2:股票购买,3:股票抛售,4:存款</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>任务条件</t>
+  </si>
+  <si>
+    <t>所需</t>
+  </si>
+  <si>
+    <t>目标</t>
   </si>
   <si>
     <t>奖励</t>
   </si>
   <si>
+    <t>type:0:保险,1:理财,2:股票购买,3:股票抛售,4:存款</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
     <t>prize</t>
   </si>
   <si>
@@ -191,10 +212,16 @@
     <t>购买一个保险产品</t>
   </si>
   <si>
-    <t>[{t:0,v:5000}]</t>
-  </si>
-  <si>
-    <t>投资理财</t>
+    <t>[{t:1,v:100}]</t>
+  </si>
+  <si>
+    <t>[{t:1,v:1}]</t>
+  </si>
+  <si>
+    <t>[{t:0,v:5000},{t:1,v:0}]</t>
+  </si>
+  <si>
+    <t>投资理财任务</t>
   </si>
   <si>
     <t>购买任何一支理财类保险产品,完成任务有额外的奖励</t>
@@ -239,75 +266,16 @@
     <t>乐享理财</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后，将在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一定时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后获得固定收益，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无风险</t>
-    </r>
-  </si>
-  <si>
-    <t>少儿分红保险</t>
-  </si>
-  <si>
-    <t>教育金、满期生存保险金、身故保险金、可附加豁免保险费意外伤害保险、可附加意外伤害医疗保险</t>
-  </si>
-  <si>
-    <t>美满人生</t>
-  </si>
-  <si>
-    <t>确保美满你的一生</t>
-  </si>
-  <si>
-    <t>养老基金</t>
-  </si>
-  <si>
-    <t>养老也能赚钱</t>
-  </si>
-  <si>
-    <t>意外险</t>
+    <t>保险理财类产品，短期投入，即可拥有一生的财富理财计划。</t>
+  </si>
+  <si>
+    <t>智享理财</t>
+  </si>
+  <si>
+    <t>尊享理财</t>
+  </si>
+  <si>
+    <t>综合意外险</t>
   </si>
   <si>
     <t>投保后，在保险期间，可以规避对应的风险，规避经济上的损失</t>
@@ -316,7 +284,7 @@
     <t>财产保险</t>
   </si>
   <si>
-    <t>旅游保险</t>
+    <t>旅游意外险</t>
   </si>
   <si>
     <t>健康保险</t>
@@ -434,7 +402,7 @@
     <t>出门遭遇高空坠物</t>
   </si>
   <si>
-    <t>[{t:0,v:-2000}]</t>
+    <t>[{t:0,v:-2000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>意外扭伤</t>
@@ -443,7 +411,7 @@
     <t>乘坐公交车发生意外，扭伤脚</t>
   </si>
   <si>
-    <t>[{t:0,v:-1000}]</t>
+    <t>[{t:0,v:-1000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>乘坐的士发生意外，头部撞伤</t>
@@ -455,7 +423,7 @@
     <t>在家烧烤，意外烫伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-800}]</t>
+    <t>[{t:0,v:-800}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>意外骨折</t>
@@ -464,25 +432,25 @@
     <t>打篮球意外受伤，手臂骨折</t>
   </si>
   <si>
-    <t>[{t:0,v:-5000}]</t>
+    <t>[{t:0,v:-5000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>海岸线穿越摔伤，脚踝扭伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-1500}]</t>
+    <t>[{t:0,v:-1500}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>驾车出行，车辆相撞，头部受伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-6000}]</t>
+    <t>[{t:0,v:-6000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>户外烧烤，意外烫伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-200}]</t>
+    <t>[{t:0,v:-200}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>度假受伤</t>
@@ -491,7 +459,7 @@
     <t>乡下度假，被蜜蜂蛰伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-500}]</t>
+    <t>[{t:0,v:-500}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>被宠物咬伤</t>
@@ -509,7 +477,7 @@
     <t>店铺发生火灾</t>
   </si>
   <si>
-    <t>[{t:0,v:-10000}]</t>
+    <t>[{t:0,v:-10000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>家里爆水管</t>
@@ -518,7 +486,7 @@
     <t>家里被盗，丢失笔记本电脑一台</t>
   </si>
   <si>
-    <t>[{t:0,v:-3000}]</t>
+    <t>[{t:0,v:-3000}},{t:1,v:0}]</t>
   </si>
   <si>
     <t>私家车被盗零件</t>
@@ -530,18 +498,27 @@
     <t>支付宝密码被盗</t>
   </si>
   <si>
-    <t>[{t:0,v:-4000}]</t>
+    <t>[{t:0,v:-4000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>信用卡被盗刷</t>
   </si>
   <si>
+    <t>[{t:0,v:-5000},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>发快递丢失，损失</t>
   </si>
   <si>
+    <t>[{t:0,v:-500},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>电脑被破解，银行密码泄露</t>
   </si>
   <si>
+    <t>[{t:0,v:-3000},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>旅游意外损失</t>
   </si>
   <si>
@@ -554,19 +531,25 @@
     <t>短途旅游摔伤</t>
   </si>
   <si>
+    <t>[{t:0,v:-2000},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>旅游意外不适</t>
   </si>
   <si>
     <t>西藏旅游高原反应</t>
   </si>
   <si>
+    <t>[{t:0,v:-1500},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>去内蒙古旅游，从马上摔下</t>
   </si>
   <si>
     <t>出境旅游跳伞扭伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-1800}]</t>
+    <t>[{t:0,v:-1800},{t:1,v:0}]</t>
   </si>
   <si>
     <t>日本旅游滑雪扭伤</t>
@@ -602,13 +585,16 @@
     <t>食物中毒</t>
   </si>
   <si>
+    <t>[{t:0,v:-1000},{t:1,v:0}]</t>
+  </si>
+  <si>
     <t>皮肤病</t>
   </si>
   <si>
     <t>急性肝炎</t>
   </si>
   <si>
-    <t>[{t:0,v:-2500}]</t>
+    <t>[{t:0,v:-2500},{t:1,v:0}]</t>
   </si>
   <si>
     <t>登革热</t>
@@ -629,13 +615,13 @@
     <t>发动机故障，损失</t>
   </si>
   <si>
-    <t>[{t:0,v:-8000}]</t>
+    <t>[{t:0,v:-8000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>停车场发生火灾，车辆受损</t>
   </si>
   <si>
-    <t>[{t:0,v:-9000}]</t>
+    <t>[{t:0,v:-9000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>自家宝马放在停车场被划</t>
@@ -665,7 +651,7 @@
     <t>彩票中三等奖</t>
   </si>
   <si>
-    <t>[{t:0,v:3000}]</t>
+    <t>[{t:0,v:3000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>彩票中一等奖</t>
@@ -674,7 +660,7 @@
     <t>彩票中二等奖</t>
   </si>
   <si>
-    <t>[{t:0,v:10000}]</t>
+    <t>[{t:0,v:10000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>获得遗产</t>
@@ -683,19 +669,19 @@
     <t>参与歌唱比赛获得奖金</t>
   </si>
   <si>
-    <t>[{t:0,v:2000}]</t>
+    <t>[{t:0,v:2000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>平安答谢客户发放月饼卡</t>
   </si>
   <si>
-    <t>[{t:0,v:1000}]</t>
+    <t>[{t:0,v:1000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>获得季度奖金</t>
   </si>
   <si>
-    <t>[{t:0,v:8000}]</t>
+    <t>[{t:0,v:8000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>获得年终绩效奖金</t>
@@ -704,13 +690,13 @@
     <t>与同事打扑克赢钱</t>
   </si>
   <si>
-    <t>[{t:0,v:500}]</t>
+    <t>[{t:0,v:500},{t:1,v:0}]</t>
   </si>
   <si>
     <t>与同事打麻将赢钱</t>
   </si>
   <si>
-    <t>[{t:0,v:1500}]</t>
+    <t>[{t:0,v:1500},{t:1,v:0}]</t>
   </si>
   <si>
     <t>与同事打赌赢钱</t>
@@ -719,7 +705,7 @@
     <t>吃海鲜吃出珍珠</t>
   </si>
   <si>
-    <t>[{t:0,v:200}]</t>
+    <t>[{t:0,v:200},{t:1,v:0}]</t>
   </si>
   <si>
     <t>种地挖出文物</t>
@@ -770,7 +756,7 @@
     <t>收藏奇石，获得利润</t>
   </si>
   <si>
-    <t>[{t:0,v:6000}]</t>
+    <t>[{t:0,v:6000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>情人节卖花，获得利润</t>
@@ -784,12 +770,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -825,7 +811,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.5"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -987,11 +979,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -999,16 +988,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,17 +1352,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1403,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1421,11 +1413,11 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
@@ -1435,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1486,7 +1478,7 @@
         <v>0.35</v>
       </c>
       <c r="E4">
-        <v>0.083</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1587,10 +1579,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
@@ -1620,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" ht="16.35" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" ht="16.35" spans="1:5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1654,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:5">
+    <row r="5" ht="16.35" spans="1:5">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1671,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:5">
+    <row r="6" ht="16.35" spans="1:5">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1688,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:5">
+    <row r="7" ht="16.35" spans="1:5">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1705,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" ht="16.35" spans="1:5">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1722,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" ht="16.35" spans="1:5">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1739,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:5">
+    <row r="10" ht="16.35" spans="1:5">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1756,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:5">
+    <row r="11" ht="16.35" spans="1:5">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1773,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:5">
+    <row r="12" ht="16.35" spans="1:5">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1790,7 +1782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:5">
+    <row r="13" ht="16.35" spans="1:5">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1823,7 +1815,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
@@ -2041,19 +2033,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2061,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="2" ht="28.5" spans="1:5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2074,14 +2068,23 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" t="s">
         <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="46.8" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2091,96 +2094,150 @@
       <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
+      <c r="D3" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>60</v>
+      <c r="B7" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2192,14 +2249,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -2213,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2224,16 +2283,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -2250,10 +2309,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -2267,206 +2326,183 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>71</v>
+      <c r="G4" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
+      <c r="B5" t="s">
+        <v>81</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F5" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
+      <c r="B6" t="s">
+        <v>82</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="1">
         <v>1000</v>
       </c>
       <c r="F6" s="1">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
+      <c r="G7" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1">
         <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="1">
         <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>82</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>450</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11">
+        <v>700</v>
+      </c>
+      <c r="E11">
+        <v>1500</v>
+      </c>
+      <c r="F11">
         <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>700</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>24</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2478,20 +2514,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor indexed="51"/>
+  </sheetPr>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2499,30 +2537,30 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2536,874 +2574,874 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E45">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3411,16 +3449,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3428,16 +3466,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3445,16 +3483,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3462,16 +3500,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3479,16 +3517,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3496,16 +3534,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3513,16 +3551,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3530,376 +3568,376 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9827" activeTab="5"/>
+    <workbookView windowWidth="22943" windowHeight="9815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -770,12 +770,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -813,11 +813,6 @@
     <font>
       <sz val="10.5"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -951,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,19 +983,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1633,13 +1625,13 @@
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1650,13 +1642,13 @@
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>80</v>
       </c>
       <c r="E5">
@@ -1667,13 +1659,13 @@
       <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>120</v>
       </c>
       <c r="E6">
@@ -1684,13 +1676,13 @@
       <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>190</v>
       </c>
       <c r="E7">
@@ -1701,13 +1693,13 @@
       <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>310</v>
       </c>
       <c r="E8">
@@ -1718,13 +1710,13 @@
       <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>500</v>
       </c>
       <c r="E9">
@@ -1735,13 +1727,13 @@
       <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>780</v>
       </c>
       <c r="E10">
@@ -1752,13 +1744,13 @@
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>1170</v>
       </c>
       <c r="E11">
@@ -1769,13 +1761,13 @@
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>1690</v>
       </c>
       <c r="E12">
@@ -1786,13 +1778,13 @@
       <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>2360</v>
       </c>
       <c r="E13">
@@ -2132,7 +2124,7 @@
       <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2192,7 +2184,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2221,7 +2213,7 @@
       <c r="B8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D8">
@@ -2272,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2392,7 +2384,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>83</v>
@@ -2415,7 +2407,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>85</v>
@@ -2438,7 +2430,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>86</v>
@@ -2461,7 +2453,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>87</v>
@@ -2484,7 +2476,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>88</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9815" activeTab="5"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
   <si>
     <t>版本号</t>
   </si>
@@ -402,7 +402,7 @@
     <t>出门遭遇高空坠物</t>
   </si>
   <si>
-    <t>[{t:0,v:-2000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-2000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>意外扭伤</t>
@@ -411,7 +411,7 @@
     <t>乘坐公交车发生意外，扭伤脚</t>
   </si>
   <si>
-    <t>[{t:0,v:-1000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-1000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>乘坐的士发生意外，头部撞伤</t>
@@ -423,7 +423,7 @@
     <t>在家烧烤，意外烫伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-800}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-800},{t:1,v:0}]</t>
   </si>
   <si>
     <t>意外骨折</t>
@@ -432,25 +432,25 @@
     <t>打篮球意外受伤，手臂骨折</t>
   </si>
   <si>
-    <t>[{t:0,v:-5000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-5000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>海岸线穿越摔伤，脚踝扭伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-1500}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-1500},{t:1,v:0}]</t>
   </si>
   <si>
     <t>驾车出行，车辆相撞，头部受伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-6000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-6000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>户外烧烤，意外烫伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-200}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-200},{t:1,v:0}]</t>
   </si>
   <si>
     <t>度假受伤</t>
@@ -459,7 +459,7 @@
     <t>乡下度假，被蜜蜂蛰伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-500}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-500},{t:1,v:0}]</t>
   </si>
   <si>
     <t>被宠物咬伤</t>
@@ -477,7 +477,7 @@
     <t>店铺发生火灾</t>
   </si>
   <si>
-    <t>[{t:0,v:-10000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-10000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>家里爆水管</t>
@@ -486,7 +486,7 @@
     <t>家里被盗，丢失笔记本电脑一台</t>
   </si>
   <si>
-    <t>[{t:0,v:-3000}},{t:1,v:0}]</t>
+    <t>[{t:0,v:-3000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>私家车被盗零件</t>
@@ -504,21 +504,12 @@
     <t>信用卡被盗刷</t>
   </si>
   <si>
-    <t>[{t:0,v:-5000},{t:1,v:0}]</t>
-  </si>
-  <si>
     <t>发快递丢失，损失</t>
   </si>
   <si>
-    <t>[{t:0,v:-500},{t:1,v:0}]</t>
-  </si>
-  <si>
     <t>电脑被破解，银行密码泄露</t>
   </si>
   <si>
-    <t>[{t:0,v:-3000},{t:1,v:0}]</t>
-  </si>
-  <si>
     <t>旅游意外损失</t>
   </si>
   <si>
@@ -531,18 +522,12 @@
     <t>短途旅游摔伤</t>
   </si>
   <si>
-    <t>[{t:0,v:-2000},{t:1,v:0}]</t>
-  </si>
-  <si>
     <t>旅游意外不适</t>
   </si>
   <si>
     <t>西藏旅游高原反应</t>
   </si>
   <si>
-    <t>[{t:0,v:-1500},{t:1,v:0}]</t>
-  </si>
-  <si>
     <t>去内蒙古旅游，从马上摔下</t>
   </si>
   <si>
@@ -583,9 +568,6 @@
   </si>
   <si>
     <t>食物中毒</t>
-  </si>
-  <si>
-    <t>[{t:0,v:-1000},{t:1,v:0}]</t>
   </si>
   <si>
     <t>皮肤病</t>
@@ -771,9 +753,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1347,7 +1329,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1409,7 +1391,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
@@ -1574,7 +1556,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
@@ -1604,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="16.35" spans="1:5">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="16.35" spans="1:5">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1638,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="16.35" spans="1:5">
+    <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1655,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="16.35" spans="1:5">
+    <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1672,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="16.35" spans="1:5">
+    <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1689,7 +1671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="16.35" spans="1:5">
+    <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1706,7 +1688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="16.35" spans="1:5">
+    <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1723,7 +1705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="16.35" spans="1:5">
+    <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1740,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="16.35" spans="1:5">
+    <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1757,7 +1739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="16.35" spans="1:5">
+    <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1774,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="16.35" spans="1:5">
+    <row r="13" ht="15.75" spans="1:5">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1807,7 +1789,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
@@ -2031,7 +2013,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -2076,7 +2058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" ht="46.8" spans="1:8">
+    <row r="3" ht="42.75" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2246,11 +2228,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -2511,11 +2493,11 @@
   </sheetPr>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
@@ -2872,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -2883,13 +2865,13 @@
         <v>121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -2900,13 +2882,13 @@
         <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -2914,16 +2896,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2931,16 +2913,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -2948,16 +2930,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -2965,16 +2947,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -2982,16 +2964,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -2999,16 +2981,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -3016,16 +2998,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -3033,16 +3015,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -3050,16 +3032,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -3067,16 +3049,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -3084,16 +3066,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E34">
         <v>7</v>
@@ -3101,16 +3083,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -3118,16 +3100,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E36">
         <v>7</v>
@@ -3135,16 +3117,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -3152,16 +3134,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -3169,16 +3151,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E39">
         <v>7</v>
@@ -3186,16 +3168,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -3203,16 +3185,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -3220,16 +3202,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -3237,16 +3219,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -3254,16 +3236,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E44">
         <v>8</v>
@@ -3271,16 +3253,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E45">
         <v>8</v>
@@ -3288,16 +3270,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E46">
         <v>8</v>
@@ -3305,16 +3287,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -3322,16 +3304,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -3339,16 +3321,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E49">
         <v>8</v>
@@ -3356,16 +3338,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E50">
         <v>8</v>
@@ -3373,16 +3355,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <v>8</v>
@@ -3390,16 +3372,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E52">
         <v>8</v>
@@ -3407,16 +3389,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E53">
         <v>8</v>
@@ -3424,16 +3406,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3441,10 +3423,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -3458,16 +3440,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3475,16 +3457,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3492,16 +3474,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3509,16 +3491,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3526,16 +3508,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3543,16 +3525,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3560,16 +3542,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3577,16 +3559,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3594,16 +3576,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3611,16 +3593,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3628,10 +3610,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -3645,16 +3627,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3662,16 +3644,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3679,16 +3661,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3696,16 +3678,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3713,16 +3695,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3730,16 +3712,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3747,16 +3729,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3764,10 +3746,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -3781,16 +3763,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3798,16 +3780,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3815,16 +3797,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3832,16 +3814,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3849,16 +3831,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3866,10 +3848,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -3883,16 +3865,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3900,16 +3882,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3917,16 +3899,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E83">
         <v>1</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" activeTab="6"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -754,8 +754,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -2228,7 +2228,7 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2312,7 +2312,7 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>80</v>
@@ -2335,7 +2335,7 @@
         <v>400</v>
       </c>
       <c r="F5" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>80</v>
@@ -2358,7 +2358,7 @@
         <v>1000</v>
       </c>
       <c r="F6" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>80</v>
@@ -2381,7 +2381,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>84</v>
@@ -2404,7 +2404,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>84</v>
@@ -2427,7 +2427,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>84</v>
@@ -2450,7 +2450,7 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>84</v>
@@ -2472,8 +2472,8 @@
       <c r="E11">
         <v>1500</v>
       </c>
-      <c r="F11">
-        <v>24</v>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>89</v>
@@ -2493,7 +2493,7 @@
   </sheetPr>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -753,9 +753,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2312,7 +2312,7 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>80</v>
@@ -2335,7 +2335,7 @@
         <v>400</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>80</v>
@@ -2358,7 +2358,7 @@
         <v>1000</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>80</v>
@@ -2381,7 +2381,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>84</v>
@@ -2404,7 +2404,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>84</v>
@@ -2427,7 +2427,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>84</v>
@@ -2450,7 +2450,7 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>84</v>
@@ -2473,7 +2473,7 @@
         <v>1500</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>89</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -753,9 +753,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2312,7 +2312,7 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>80</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>版本号</t>
   </si>
@@ -266,7 +266,7 @@
     <t>乐享理财</t>
   </si>
   <si>
-    <t>保险理财类产品，短期投入，即可拥有一生的财富理财计划。</t>
+    <t>保险理财类产品，短期投入即可拥有一生的财富理财计划。</t>
   </si>
   <si>
     <t>智享理财</t>
@@ -278,7 +278,7 @@
     <t>综合意外险</t>
   </si>
   <si>
-    <t>投保后，在保险期间，可以规避对应的风险，规避经济上的损失</t>
+    <t>投保后，在保险期间可以规避对应风险带来的损失</t>
   </si>
   <si>
     <t>财产保险</t>
@@ -291,88 +291,6 @@
   </si>
   <si>
     <t>平安车险</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投保后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，在保险</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>期间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>规避</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的风险，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>规避</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经济上的损失</t>
-    </r>
   </si>
   <si>
     <t>触发周期(分钟)</t>
@@ -752,12 +670,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -794,7 +712,7 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color indexed="10"/>
+      <color indexed="40"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -806,11 +724,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -2246,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2312,7 +2225,7 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>80</v>
@@ -2383,7 +2296,7 @@
       <c r="F7" s="1">
         <v>24</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2406,7 +2319,7 @@
       <c r="F8" s="1">
         <v>24</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2429,7 +2342,7 @@
       <c r="F9" s="1">
         <v>24</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2452,7 +2365,7 @@
       <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2475,8 +2388,8 @@
       <c r="F11" s="1">
         <v>24</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>89</v>
+      <c r="G11" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2427,7 @@
         <v>2.5</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1">
         <v>10</v>
@@ -2522,19 +2435,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2551,21 +2464,21 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -2573,16 +2486,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2590,16 +2503,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2607,16 +2520,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2624,16 +2537,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -2641,16 +2554,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2658,16 +2571,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -2675,16 +2588,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -2692,16 +2605,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2709,16 +2622,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -2726,16 +2639,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -2743,16 +2656,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -2760,16 +2673,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -2777,16 +2690,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -2794,16 +2707,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2811,16 +2724,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -2828,16 +2741,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -2845,16 +2758,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -2862,16 +2775,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -2879,16 +2792,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -2896,16 +2809,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2913,16 +2826,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -2930,16 +2843,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -2947,16 +2860,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -2964,16 +2877,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -2981,16 +2894,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -2998,16 +2911,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -3015,16 +2928,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -3032,16 +2945,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -3049,16 +2962,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -3066,16 +2979,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34">
         <v>7</v>
@@ -3083,16 +2996,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -3100,16 +3013,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36">
         <v>7</v>
@@ -3117,16 +3030,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -3134,16 +3047,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -3151,16 +3064,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39">
         <v>7</v>
@@ -3168,16 +3081,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -3185,16 +3098,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -3202,16 +3115,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -3219,16 +3132,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -3236,16 +3149,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <v>8</v>
@@ -3253,16 +3166,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E45">
         <v>8</v>
@@ -3270,16 +3183,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E46">
         <v>8</v>
@@ -3287,16 +3200,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -3304,16 +3217,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -3321,16 +3234,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49">
         <v>8</v>
@@ -3338,16 +3251,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50">
         <v>8</v>
@@ -3355,16 +3268,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51">
         <v>8</v>
@@ -3372,16 +3285,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E52">
         <v>8</v>
@@ -3389,16 +3302,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53">
         <v>8</v>
@@ -3406,16 +3319,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3423,10 +3336,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -3440,16 +3353,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3457,16 +3370,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3474,16 +3387,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3491,16 +3404,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3508,16 +3421,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3525,16 +3438,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3542,16 +3455,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3559,16 +3472,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3576,16 +3489,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3593,16 +3506,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3610,10 +3523,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -3627,16 +3540,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3644,16 +3557,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3661,16 +3574,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3678,16 +3591,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3695,16 +3608,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3712,16 +3625,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3729,16 +3642,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3746,10 +3659,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -3763,16 +3676,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3780,16 +3693,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3797,16 +3710,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3814,16 +3727,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3831,16 +3744,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3848,10 +3761,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -3865,16 +3778,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3882,16 +3795,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3899,16 +3812,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E83">
         <v>1</v>

--- a/cfdata.xlsx
+++ b/cfdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" activeTab="5"/>
+    <workbookView windowWidth="20370" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initdata" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
     <t>皮肤病</t>
   </si>
   <si>
-    <t>急性肝炎</t>
+    <t>病毒性感冒</t>
   </si>
   <si>
     <t>[{t:0,v:-2500},{t:1,v:0}]</t>
@@ -500,10 +500,10 @@
     <t>登革热</t>
   </si>
   <si>
-    <t>贫血</t>
-  </si>
-  <si>
-    <t>急性肾炎</t>
+    <t>中暑</t>
+  </si>
+  <si>
+    <t>伤风感冒</t>
   </si>
   <si>
     <t>交通意外</t>
@@ -563,7 +563,7 @@
     <t>[{t:0,v:10000},{t:1,v:0}]</t>
   </si>
   <si>
-    <t>获得遗产</t>
+    <t>被评为本月最佳员工</t>
   </si>
   <si>
     <t>参与歌唱比赛获得奖金</t>
@@ -670,10 +670,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -2141,7 +2141,7 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2406,8 +2406,8 @@
   </sheetPr>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="C1" t="s">
         <v>89</v>
